--- a/data/hotels_by_city/Dallas/Dallas_shard_525.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_525.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,764 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r525596455-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>55736</t>
+  </si>
+  <si>
+    <t>107164</t>
+  </si>
+  <si>
+    <t>525596455</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Awesome Experience</t>
+  </si>
+  <si>
+    <t>Me and Family stayed at Magnuson Grand over the Labor Day Weekend and had an awesome experience especially the Room Decor, The Hot Breakfast at I 35 and the the evening at Bobbisox Club. The Linen was neatly put and the washroom was well appointed. The staff was very courteous and welcoming and made our stay a WOW experience. For the price it was a kill and we would certainly stay at the hotel again and would recommend other prospect guests to consider staying. It goes without saying that GM Lamarr and Director Sales Jerry made our stay very comfortable.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r524999752-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>524999752</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>I stayed in room 302.  The room was good for the price along with hot breakfast serving custom eggs.  Hot breakfast are hard to find now a days.  The staff was friendly  Looks like it is under new management.The new management is doing extensive renovations.  Will stay again</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r524424692-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>524424692</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Staff Was Superb</t>
+  </si>
+  <si>
+    <t>Great Experience here at the hotel older property but overall staff exceptional food in restaurant was great no complaints Hot Food great ammenities and overall staff appearance were all high priorities...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r508550924-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>508550924</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Not stay here </t>
+  </si>
+  <si>
+    <t>We arrived and the lobby was HOT no A/C working. Upon checking in, no one told me that the A/C in the rooms didn't work until we got there. We enter the rooms and there were stains on the carpet, walls, and covers. The table in the furniture in the rooms were unstable. The A/C in ever odd room did not work. There were little to no staff working to check us in. The elevator work so slow to take is to the room that we decided it would be faster to walk the stairs instead, not this is with luggage. The only good thing about this place is they gave us little to no problem letting us check out so we could find a better hotel. Oh P.S dont book if you're bringing a church. There's a club in the lobby, you can hear the music in your room all night. The hotel has great potential but a lot needs to change MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We arrived and the lobby was HOT no A/C working. Upon checking in, no one told me that the A/C in the rooms didn't work until we got there. We enter the rooms and there were stains on the carpet, walls, and covers. The table in the furniture in the rooms were unstable. The A/C in ever odd room did not work. There were little to no staff working to check us in. The elevator work so slow to take is to the room that we decided it would be faster to walk the stairs instead, not this is with luggage. The only good thing about this place is they gave us little to no problem letting us check out so we could find a better hotel. Oh P.S dont book if you're bringing a church. There's a club in the lobby, you can hear the music in your room all night. The hotel has great potential but a lot needs to change More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r507473831-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>507473831</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE, DONT WALK RUN RUN RUN!! DON'T STAY HERE!!</t>
+  </si>
+  <si>
+    <t>THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I...THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I get to the room and soon as I walked in the heat hit me in my face, called down to the front desk and was informed that they would send someone up to check it.  We waited for 25 minutes and still no one had showed up, so I hiked back to the elevator (where we had to wait again) go back to the front and he gives me another room, hike another half mile to the slow elevator and get to the other room and it wreaked of smoked really bad and guess what there was no air in this room as well!!!!!  I was traveling with a 5 &amp; 7 year old which both have asthma and eczema so this was definitely a problem, so I go back to the counter and at this point I am HOT, MISERABLE, TIRED OF WALKING FROM COUNTER TO ROOM, ELEVATOR TAKING FOREVER, I ask to speak with manager and the front desk state they are working on the air to give it 30 minutes (are you serious it took me 1 HOUR to get checked in) as I am speaking with the clerk my Uncle comes down and states that his room wasn’t clean and the air wasn’t working.  There was an old slice of pizza that appeared to be some days old along with some dried up chocolate candy and a soda can in his room.  He assured they were going to take care of it, after an hour went by and still no air or signs of mechanics in the area then me and my family went across the street got a better rate (and it wasn’t a group rate) a clean hotel, amazing hot breakfast and superb Customer Service.  Never ever again will I stay at any of these chains with the word Magnuson, this is considered the BATES MOTEL in my opinion.  Do yourself a favor and don’t step foot into this location.  They also have a club connected to the hotel, so if this is the case why not let the church group know that and don’t book a room over the club, but that wasn’t the case for some of the other church members getting awakened from loud music.  While standing in line to check in I dropped my cell phone and it broke and if it wasn’t for that I would have pictures to show.  MoreShow less</t>
+  </si>
+  <si>
+    <t>THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I...THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I get to the room and soon as I walked in the heat hit me in my face, called down to the front desk and was informed that they would send someone up to check it.  We waited for 25 minutes and still no one had showed up, so I hiked back to the elevator (where we had to wait again) go back to the front and he gives me another room, hike another half mile to the slow elevator and get to the other room and it wreaked of smoked really bad and guess what there was no air in this room as well!!!!!  I was traveling with a 5 &amp; 7 year old which both have asthma and eczema so this was definitely a problem, so I go back to the counter and at this point I am HOT, MISERABLE, TIRED OF WALKING FROM COUNTER TO ROOM, ELEVATOR TAKING FOREVER, I ask to speak with manager and the front desk state they are working on the air to give it 30 minutes (are you serious it took me 1 HOUR to get checked in) as I am speaking with the clerk my Uncle comes down and states that his room wasn’t clean and the air wasn’t working.  There was an old slice of pizza that appeared to be some days old along with some dried up chocolate candy and a soda can in his room.  He assured they were going to take care of it, after an hour went by and still no air or signs of mechanics in the area then me and my family went across the street got a better rate (and it wasn’t a group rate) a clean hotel, amazing hot breakfast and superb Customer Service.  Never ever again will I stay at any of these chains with the word Magnuson, this is considered the BATES MOTEL in my opinion.  Do yourself a favor and don’t step foot into this location.  They also have a club connected to the hotel, so if this is the case why not let the church group know that and don’t book a room over the club, but that wasn’t the case for some of the other church members getting awakened from loud music.  While standing in line to check in I dropped my cell phone and it broke and if it wasn’t for that I would have pictures to show.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r499292066-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>499292066</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Alright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As far as hotels in the middle of nowhere go it was meh. The A.C. didn't work half the time so the hotel was stuck at 80°F, as well as the laundry not working, the elevator was slow, and there were no working seatbelts in the shuttle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r487147756-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>487147756</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>willam's review</t>
+  </si>
+  <si>
+    <t>Very clean hotel with helpful staff, nice indoor pool, excellent restaurant, with good prices, near waffle house and cracker barrel. Would stay here again. Was a business trip but nice location near dallasMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>jerry s, Director of Sales at Magnuson Grand DeSoto, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Very clean hotel with helpful staff, nice indoor pool, excellent restaurant, with good prices, near waffle house and cracker barrel. Would stay here again. Was a business trip but nice location near dallasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r477075942-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>477075942</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>A NIGHTMARE!!</t>
+  </si>
+  <si>
+    <t>stayed at this hotel for a business trip, NEVER AGAIN!!! my room was hot, called front desk to get maintenance,  and when the guy finally came, he has the nerve to act pissed off like he doing you a favor to be there and that you are messing with his time!! DUDE, IT'S YOUR JOB!!!! ATTITUDE ALL THE TIME!! think his name was ANDRE. OVERALL HORRIBLE STAY!!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r470409268-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>470409268</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Many children about the swimming pool area, noise in the hallways, children were going up and down on the elevator. Bathrooms very untidy.  Would not recommend. Customer service  and breakfast were great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r437222019-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>437222019</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>MidUpper class hotel...NOT!!</t>
+  </si>
+  <si>
+    <t>When you first walk in to this place you are greeted by a very nice looking lobby all marble tile, high polish on the wood surfaces, and generally looks like a very nice place.
+This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with...When you first walk in to this place you are greeted by a very nice looking lobby all marble tile, high polish on the wood surfaces, and generally looks like a very nice place.This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with clean linens just the old ones reused) and replace the towels. The sign for the club said closing time was midnight but they were closed before 11pm. Unlike most all mid level hotel/motels that offer a free breakfast you have to pay for breakfast and it costs $5.95I definitely would not ever stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>When you first walk in to this place you are greeted by a very nice looking lobby all marble tile, high polish on the wood surfaces, and generally looks like a very nice place.
+This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with...When you first walk in to this place you are greeted by a very nice looking lobby all marble tile, high polish on the wood surfaces, and generally looks like a very nice place.This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with clean linens just the old ones reused) and replace the towels. The sign for the club said closing time was midnight but they were closed before 11pm. Unlike most all mid level hotel/motels that offer a free breakfast you have to pay for breakfast and it costs $5.95I definitely would not ever stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r436152873-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>436152873</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Terrible Stay For Class Reunion</t>
+  </si>
+  <si>
+    <t>This was the 1st Choice Privilege hotel that I experienced the worst possible stay. This hotel is unsuitable to be staying in. The hotel staff checked me in by leaning over the keyboard, unfriendly. Only one slow elevator for 4 floors. When you get off the elevator smells like mildew and you almost can fall through the floor. Go into the room, old furniture, tables half cleaned, TV remote doesn't work, and sink in restroom drains really slow. Water sits for about 20 minutes. I will never stay at this hotel again. Oh and not to mention NO ICE MACHINES WORK. Housekeeping comes in and smears mirror with a rag. Just Horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This was the 1st Choice Privilege hotel that I experienced the worst possible stay. This hotel is unsuitable to be staying in. The hotel staff checked me in by leaning over the keyboard, unfriendly. Only one slow elevator for 4 floors. When you get off the elevator smells like mildew and you almost can fall through the floor. Go into the room, old furniture, tables half cleaned, TV remote doesn't work, and sink in restroom drains really slow. Water sits for about 20 minutes. I will never stay at this hotel again. Oh and not to mention NO ICE MACHINES WORK. Housekeeping comes in and smears mirror with a rag. Just Horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r430448297-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>430448297</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviews on this hotel are bad for a reason!!  </t>
+  </si>
+  <si>
+    <t>Before I begin, I want to state that I booked this direct through the Choice Hotel website, and requested one of their "nicer" rooms....The volume on the TV didn't work, so I called the front desk.  They advised they would send maintenance.  About an hour later the front desk called back to confirm the specific problem and advised they would bring us a new remote for the TV.  We never heard from them again!!!  Really?!?  The A/C was SOOOOOOO loud that it literally sounded like an airplane taking off!  We decided to use the frig, had to plug it in, only to find out that it was almost as loud as the A/C!!!  To top this off, we were on the side by the freeway and the soundproofing was so bad you could hear every vehicle go by!!  The elevator was so slow, it was hard to tell if it was working.  There was a sign on the ice machine on our third floor that the ice machines on the 2nd, 3rd, and 4th floor were out of order, with instructions to go to the first floor for ice!  The halls and public areas (except for the front lobby!) are in desperate need of basic repairs, seriously cleaning, and painting.  This is a horrible example of a "Choice" hotel, and I strongly suggest they remove their name from this joke of a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Before I begin, I want to state that I booked this direct through the Choice Hotel website, and requested one of their "nicer" rooms....The volume on the TV didn't work, so I called the front desk.  They advised they would send maintenance.  About an hour later the front desk called back to confirm the specific problem and advised they would bring us a new remote for the TV.  We never heard from them again!!!  Really?!?  The A/C was SOOOOOOO loud that it literally sounded like an airplane taking off!  We decided to use the frig, had to plug it in, only to find out that it was almost as loud as the A/C!!!  To top this off, we were on the side by the freeway and the soundproofing was so bad you could hear every vehicle go by!!  The elevator was so slow, it was hard to tell if it was working.  There was a sign on the ice machine on our third floor that the ice machines on the 2nd, 3rd, and 4th floor were out of order, with instructions to go to the first floor for ice!  The halls and public areas (except for the front lobby!) are in desperate need of basic repairs, seriously cleaning, and painting.  This is a horrible example of a "Choice" hotel, and I strongly suggest they remove their name from this joke of a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r400110061-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>400110061</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>wont be making a return visit to this hotel</t>
+  </si>
+  <si>
+    <t>The hotel elevator is the worst one that I've  ever been on. Slower than molasses.  Ice machines didnt work on all floors.  Breakfast buffet was included.   It was really good. It pool and hot tub was nice.  The hotel had a general air of being a bit rundown and seedy.  It seems like some people actually live there full time.  Hotel was about 10 miles south of downtown Dallas. The drive was easy.  Oh....the outer doors to hotel were always locked from outside.  You cannot go into hotel through  side doors.  Only access in was through  front lobby doors.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r398900338-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>398900338</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>This is the worst hotel we have ever been to in my life. Holes in the wall by the box a.c. That is old and load. The room was not clean. The hotel was not clean. Old TV and you can not hook up my Xbox. One up to the tv. Because they broke the TV so you can't do this and the manager is not smart he said that the Xbox would break the TV ... What... I don't think so. The Internet is so bad that you can't even play on you phone. And the place is not safe for kids .. and when we stayed for one night my son was deathly sick because of this place stay away ..MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst hotel we have ever been to in my life. Holes in the wall by the box a.c. That is old and load. The room was not clean. The hotel was not clean. Old TV and you can not hook up my Xbox. One up to the tv. Because they broke the TV so you can't do this and the manager is not smart he said that the Xbox would break the TV ... What... I don't think so. The Internet is so bad that you can't even play on you phone. And the place is not safe for kids .. and when we stayed for one night my son was deathly sick because of this place stay away ..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r394306187-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>394306187</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>OK Hotel, but needs help in all areas</t>
+  </si>
+  <si>
+    <t>The bed comfortable, and the hotel quiet, but the sink leaks, the toilet leaks, the shower leaks, the TV volume did not work, the internet was good, until it died, tried to call the front desk, the phone did not work, the carpets in the hallway were beat and dirty, the parking lot was dirty, the doors to the outside did not work with the key card, but one was held open by a stick at 5AM.  An older hotel in need of a refresh, but considering the price (under $100) was OK.  The breakfast was very good, a buffet offered in the dining room, definitely a step up from other Choice Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>The bed comfortable, and the hotel quiet, but the sink leaks, the toilet leaks, the shower leaks, the TV volume did not work, the internet was good, until it died, tried to call the front desk, the phone did not work, the carpets in the hallway were beat and dirty, the parking lot was dirty, the doors to the outside did not work with the key card, but one was held open by a stick at 5AM.  An older hotel in need of a refresh, but considering the price (under $100) was OK.  The breakfast was very good, a buffet offered in the dining room, definitely a step up from other Choice Hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r381157798-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>381157798</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>not worth the trip</t>
+  </si>
+  <si>
+    <t>I booked my reservation in February 2016 for a family vacation in May 2016.I called hotel to confirm my reservation, and the price. I was advised that I was booked for one night, when I reserved for three nights. The hotel stated that when I arrive that it would be corrected. Not, when I arrived, I was still booked for one night and was told I had to change rooms the next morning. I booked a 2 room suite, which was not available, I was told that they would "comp" me for the 2 nights I had to change rooms. this was not note on my bill. the suite I received was  a one bedroom with a pull out sofa. and the bedroom was upstairs. my spouse is handicap and could not climb the stairs.  I was told that they would give me a discount for the inconvenience. when I went to change my room the manager stated he never told me that he would "comp" the next two nights, he called me a liar. the room I was moved to, the air conditioner didn't work, the refrigerator, and microwave didn't work. the desk clerk assured me that he would not charge me for the two nights, however, the discount for the inconvenience was not given to me. worst stay ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I booked my reservation in February 2016 for a family vacation in May 2016.I called hotel to confirm my reservation, and the price. I was advised that I was booked for one night, when I reserved for three nights. The hotel stated that when I arrive that it would be corrected. Not, when I arrived, I was still booked for one night and was told I had to change rooms the next morning. I booked a 2 room suite, which was not available, I was told that they would "comp" me for the 2 nights I had to change rooms. this was not note on my bill. the suite I received was  a one bedroom with a pull out sofa. and the bedroom was upstairs. my spouse is handicap and could not climb the stairs.  I was told that they would give me a discount for the inconvenience. when I went to change my room the manager stated he never told me that he would "comp" the next two nights, he called me a liar. the room I was moved to, the air conditioner didn't work, the refrigerator, and microwave didn't work. the desk clerk assured me that he would not charge me for the two nights, however, the discount for the inconvenience was not given to me. worst stay ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r380949199-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>380949199</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Decent place to stay if you just want tot crash. Stayed on a Saturday, the club/bar seem to be jumping however the music can be heard from the rooms facing inwards. The scenery was nice the rooms seems somewhat dated. Breakfast was decent had a chef who made omelets. Will consider if had to stay again</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r380508719-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>380508719</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Use to be MCM Grande Hotel... NOw is an awful place to even go by ! ! ! !</t>
+  </si>
+  <si>
+    <t>MCM Grande Hotel use to be... now changed name, ownres and management; which makes it the worst place to stay in DeSoto / Lancaster / South Dallas area,No hot water, dust allover the room, the halls, and the hallway door entrance was out of service; so I had to go all around to get to the car.I stayed several times before, but this time I invited my son to stay here; for which I am very very dissapointed and very angry.No breakfast early morning as it should, toaster was not working properly - lightly toasted, or black burned bagels or waffles.... hard like an ice cube individual butter, just orange marmalades, and forever to get a simple two egg, ham and cheese omelette.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>MCM Grande Hotel use to be... now changed name, ownres and management; which makes it the worst place to stay in DeSoto / Lancaster / South Dallas area,No hot water, dust allover the room, the halls, and the hallway door entrance was out of service; so I had to go all around to get to the car.I stayed several times before, but this time I invited my son to stay here; for which I am very very dissapointed and very angry.No breakfast early morning as it should, toaster was not working properly - lightly toasted, or black burned bagels or waffles.... hard like an ice cube individual butter, just orange marmalades, and forever to get a simple two egg, ham and cheese omelette.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r337086546-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>337086546</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Past its prime, still works</t>
+  </si>
+  <si>
+    <t>This hotel, probably in its prime was very nice!  That could have been more than 30 years ago, however.  Huge lobby, in which they have made some upgrades.  They do offer complimentary breakfast, with a chef for omelets, and decent selection of other things.  The fitness center has three pieces of equipment, two of which don't work, the TV also doesn't work in there either.  The hotel does offer free Wifi, although, there really wasn't a spot in the room, where you could actually get it.  The hallway, had a strong signal, however, you don't really want to hang out in the hallway.  The room had an AC/Heater window unit, that sounded a bit like a jet taking off, however, it did it's job, if you can handle the noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel, probably in its prime was very nice!  That could have been more than 30 years ago, however.  Huge lobby, in which they have made some upgrades.  They do offer complimentary breakfast, with a chef for omelets, and decent selection of other things.  The fitness center has three pieces of equipment, two of which don't work, the TV also doesn't work in there either.  The hotel does offer free Wifi, although, there really wasn't a spot in the room, where you could actually get it.  The hallway, had a strong signal, however, you don't really want to hang out in the hallway.  The room had an AC/Heater window unit, that sounded a bit like a jet taking off, however, it did it's job, if you can handle the noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r327618403-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>327618403</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>A mix of wow &amp; ugh!</t>
+  </si>
+  <si>
+    <t>The hotel lobby is beautiful, without a doubt. Staff very friendly and helpful. My room though had a mix of very nice furniture and a mix of old things as well. Nice desks, microwave, refrigerator, tv and beds all very nice. As I turned to my window there are holes in the drapes and old sinks in the bathroom. If the hotel is going under reservation they should finish it first! But overall satisfactory !!!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r326867537-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>326867537</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>On of the best hotels I have been in and I travel a lot</t>
+  </si>
+  <si>
+    <t>We are on the road all the time. When I sat to write my review I was flabbergasted at the other low reviews. I LOVE this hotel. Breakfast which is free has a chef making fresh omelets. Our suite is the nicest we have ever stayed in. Used it for a training class. Bedroom upstairs, fireplace, balcony which over looks the atrium. The balcony alone is bigger than most hotel rooms. Lovely hotel. Live piano music. Friendly helpful staff. Unless everything has been revamped, i am confused by the previously low reviews. I was totally delighted and have plans to stay here again. Thinking about bringing a convention here because there are many large meeting rooms. We did eat lunch here. Service was a little slow but the food was tasty and generous. It is such a beautiful hotel inside I wouldn't have noticed the wait except for reading the others reviews. Price of the room was a real value for what we got. Only downside as far as I could see is that there is no airport shuttle. Photo is the downstairs of our suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>jerry s, Director of Sales at Magnuson Grand DeSoto, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>We are on the road all the time. When I sat to write my review I was flabbergasted at the other low reviews. I LOVE this hotel. Breakfast which is free has a chef making fresh omelets. Our suite is the nicest we have ever stayed in. Used it for a training class. Bedroom upstairs, fireplace, balcony which over looks the atrium. The balcony alone is bigger than most hotel rooms. Lovely hotel. Live piano music. Friendly helpful staff. Unless everything has been revamped, i am confused by the previously low reviews. I was totally delighted and have plans to stay here again. Thinking about bringing a convention here because there are many large meeting rooms. We did eat lunch here. Service was a little slow but the food was tasty and generous. It is such a beautiful hotel inside I wouldn't have noticed the wait except for reading the others reviews. Price of the room was a real value for what we got. Only downside as far as I could see is that there is no airport shuttle. Photo is the downstairs of our suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r306611108-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>306611108</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Awful ownership, littered with truckers, filthy facilities, cheap (even for a budget hotel).</t>
+  </si>
+  <si>
+    <t>You can tell that 20 years ago this was a pretty decent hotel (albeit short on elevators). Since going under new ownership 4 years ago, the hotel has fallen apart, and ownership could care less (according to several employees I spoke with in the restaurant and at the front desk). They are only concerned with keeping the rooms full for truckers from the trucking companies they have contracts with, and of truckers don’t have the highest standards for living. To them, any roof with air conditioning that isn’t a truck or a trailer might as well be the Waldorf Astoria. For the rest of us though, here are a few bullet points illustrating the problems I had with the Clarion in Desoto Texas. Needless to say, Clarion’s corporate office should be ashamed to have this location on their roster, and they need to come in to do a complete overhaul of both the facilities and the staff (specifically, ownership).
+•	The air vent in my room was absolutely filthy. HERE’S A PHOTO: (http://i.imgur.com/WRcCFqd.jpg)
+•	On two days the room was not cleaned. I did not leave a “Do Not Disturb” sign on the front of the door.  Even in the worst hotel/motel, I’ve never had a room skipped for cleaning.
+•	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not...You can tell that 20 years ago this was a pretty decent hotel (albeit short on elevators). Since going under new ownership 4 years ago, the hotel has fallen apart, and ownership could care less (according to several employees I spoke with in the restaurant and at the front desk). They are only concerned with keeping the rooms full for truckers from the trucking companies they have contracts with, and of truckers don’t have the highest standards for living. To them, any roof with air conditioning that isn’t a truck or a trailer might as well be the Waldorf Astoria. For the rest of us though, here are a few bullet points illustrating the problems I had with the Clarion in Desoto Texas. Needless to say, Clarion’s corporate office should be ashamed to have this location on their roster, and they need to come in to do a complete overhaul of both the facilities and the staff (specifically, ownership).•	The air vent in my room was absolutely filthy. HERE’S A PHOTO: (http://i.imgur.com/WRcCFqd.jpg)•	On two days the room was not cleaned. I did not leave a “Do Not Disturb” sign on the front of the door.  Even in the worst hotel/motel, I’ve never had a room skipped for cleaning.•	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not been fixed. I reported this to the front desk every day during my stay, and every day the front desk said “this is the first we’ve heard about this.”  When I left the hotel they were still inoperable.  •	Hotel wifi is never the best, but the wifi at Clarion Desoto is unforgivably bad. It drops for 30 minutes to 1 hour at a time. Even with an antenna (to boost reception) the service dropped if I tried to load a page with video, or if I had webpages loading in multiple tabs. It was the slowest internet I’ve dealt with since 1996-98 in the 56k Dial-Up days.•	During two separate showers maintenance knocked on my door, and shouted through the door that they needed to come into my room because water was leaking to the floor below.  •	On 3 separate days my dirty towels were removed (as well as the unused towels), but no clean towels were left.  The 3rd time the hotel staff came to my door to deliver towels to fix the mistake, he was talking on his Android phone (on speaker, of course) to a friend from outside work. He gave me the towels and barely made eye contact, but simply put the towels in my hand and walked away. Neither he or the front desk apologized for the mistake.•	There are 4 floors in the hotel, but only 1 elevator. The stairs are on the 2 far ends of the hotel, so not convenient if you are staying in a room in the middle of the hotel, and completely dangerous if there is a fire in the hotel.  •	The tubs cannot be plugged if you would prefer to take a bath. I assume this is because the showers leak.  •	There are 4 Coca Cola machines in the hotel. The only working machine is on the 4th floor. It can take a card, but not cash. The 3 other machines decline your card and reject cash ($1 bills or Quarters).  •	Most (7 out of 8) of the light fixtures outside of the elevators are broken/cracked.  HERE’S A PHOTO (http://i.imgur.com/CsPzshh.jpg)•	2 of the 4 lamps in my room did not have working light bulbs. This was reported, but never fixed.  •	Coffee/Tea was never replaced in my room. I had to call down every evening to have someone bring it up (usually with the towels they forgot to replace)•	“Continental Breakfast” includes (every day): Scrambled Eggs, dry biscuits, very dry/tasteless sausage links, very dry/tasteless sliced potatoes, and generic jelly danishes. There is no fruit.•	The staff members at the front desk dress professionally, but the rest of the staff never clean their work clothes or tuck in their shirts. Many of the shirts have pink bleech spots on them.•	There is no freight elevator, so you spend as much time waiting on the 1 elevator because the staff is riding it as you do because other guests are riding it.  •	If the elevator is going up, and you need to go down, it will stop on your floor on the way up. Say you’re on the 2nd floor, needing to go to the first, but the elevator is on it’s way up to the 4th floor. You’ll have to ride all the way to the top then be taken down. I’ve never seen another elevator in any building that is so poorly programmed.•	There are no soap dishes built into the sink, and no external soap dishes, so you’ll either have soap residue all over your bathroom countertop, or a bar of soap covered in toothpaste.•	The towels are too small and feel like they are made of sandpaper. Coming from the hotel hospitality industry myself, I can tell you that these towels are manufactured for auto shops or cleaning purposes. They’re not designed to dry people getting out of showers/baths. •	At $94.00 per night, this is not a budget motel. You can stay at a Holiday Inn Express, Hampton Inn, or any other comparable hotel and have a much, much better experience than you will at the Clarion. If you want this experience, save yourself a few bucks and stay in a budget motel like Motel 8 or Quality Inn for $39-$60. There is nothing special about this location, so you won’t miss anything.•	The hotel is littered with truckers who will wake you up at all hours of the night either fighting with each other or stumbling after a night out drinking in some vacant parking lot.•	On Friday/Saturday nights the hotel lobby fills with smoke because the bar off the lobby becomes a sort of urban club. It does not attract the most savory characters.•	One 1 night I had a young woman and large man knock on my door asking for “Moose.” I told here I was not Moose and she asked “are you sure, because Moose called and told me to meet him in room ***.” This was my first experience with a hotel prostitute. It was nothing like Pretty Woman, let me tell you. She stood outside my door yelling at someone on the phone for 5 minutes about her frustration. •	Every time I tried to call the front desk from the room phone I got a busy signal. I usually tried 5-10 times just to see if I could get through. There is no queue for the phones. If you want to get the front desk, call from your cell phone. You’ll get right through. The front desk number is on the phone in the room. The “Room Service” button does not go anywhere. It is a non-functioning button. Shocker.MoreShow less</t>
+  </si>
+  <si>
+    <t>You can tell that 20 years ago this was a pretty decent hotel (albeit short on elevators). Since going under new ownership 4 years ago, the hotel has fallen apart, and ownership could care less (according to several employees I spoke with in the restaurant and at the front desk). They are only concerned with keeping the rooms full for truckers from the trucking companies they have contracts with, and of truckers don’t have the highest standards for living. To them, any roof with air conditioning that isn’t a truck or a trailer might as well be the Waldorf Astoria. For the rest of us though, here are a few bullet points illustrating the problems I had with the Clarion in Desoto Texas. Needless to say, Clarion’s corporate office should be ashamed to have this location on their roster, and they need to come in to do a complete overhaul of both the facilities and the staff (specifically, ownership).
+•	The air vent in my room was absolutely filthy. HERE’S A PHOTO: (http://i.imgur.com/WRcCFqd.jpg)
+•	On two days the room was not cleaned. I did not leave a “Do Not Disturb” sign on the front of the door.  Even in the worst hotel/motel, I’ve never had a room skipped for cleaning.
+•	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not...You can tell that 20 years ago this was a pretty decent hotel (albeit short on elevators). Since going under new ownership 4 years ago, the hotel has fallen apart, and ownership could care less (according to several employees I spoke with in the restaurant and at the front desk). They are only concerned with keeping the rooms full for truckers from the trucking companies they have contracts with, and of truckers don’t have the highest standards for living. To them, any roof with air conditioning that isn’t a truck or a trailer might as well be the Waldorf Astoria. For the rest of us though, here are a few bullet points illustrating the problems I had with the Clarion in Desoto Texas. Needless to say, Clarion’s corporate office should be ashamed to have this location on their roster, and they need to come in to do a complete overhaul of both the facilities and the staff (specifically, ownership).•	The air vent in my room was absolutely filthy. HERE’S A PHOTO: (http://i.imgur.com/WRcCFqd.jpg)•	On two days the room was not cleaned. I did not leave a “Do Not Disturb” sign on the front of the door.  Even in the worst hotel/motel, I’ve never had a room skipped for cleaning.•	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not been fixed. I reported this to the front desk every day during my stay, and every day the front desk said “this is the first we’ve heard about this.”  When I left the hotel they were still inoperable.  •	Hotel wifi is never the best, but the wifi at Clarion Desoto is unforgivably bad. It drops for 30 minutes to 1 hour at a time. Even with an antenna (to boost reception) the service dropped if I tried to load a page with video, or if I had webpages loading in multiple tabs. It was the slowest internet I’ve dealt with since 1996-98 in the 56k Dial-Up days.•	During two separate showers maintenance knocked on my door, and shouted through the door that they needed to come into my room because water was leaking to the floor below.  •	On 3 separate days my dirty towels were removed (as well as the unused towels), but no clean towels were left.  The 3rd time the hotel staff came to my door to deliver towels to fix the mistake, he was talking on his Android phone (on speaker, of course) to a friend from outside work. He gave me the towels and barely made eye contact, but simply put the towels in my hand and walked away. Neither he or the front desk apologized for the mistake.•	There are 4 floors in the hotel, but only 1 elevator. The stairs are on the 2 far ends of the hotel, so not convenient if you are staying in a room in the middle of the hotel, and completely dangerous if there is a fire in the hotel.  •	The tubs cannot be plugged if you would prefer to take a bath. I assume this is because the showers leak.  •	There are 4 Coca Cola machines in the hotel. The only working machine is on the 4th floor. It can take a card, but not cash. The 3 other machines decline your card and reject cash ($1 bills or Quarters).  •	Most (7 out of 8) of the light fixtures outside of the elevators are broken/cracked.  HERE’S A PHOTO (http://i.imgur.com/CsPzshh.jpg)•	2 of the 4 lamps in my room did not have working light bulbs. This was reported, but never fixed.  •	Coffee/Tea was never replaced in my room. I had to call down every evening to have someone bring it up (usually with the towels they forgot to replace)•	“Continental Breakfast” includes (every day): Scrambled Eggs, dry biscuits, very dry/tasteless sausage links, very dry/tasteless sliced potatoes, and generic jelly danishes. There is no fruit.•	The staff members at the front desk dress professionally, but the rest of the staff never clean their work clothes or tuck in their shirts. Many of the shirts have pink bleech spots on them.•	There is no freight elevator, so you spend as much time waiting on the 1 elevator because the staff is riding it as you do because other guests are riding it.  •	If the elevator is going up, and you need to go down, it will stop on your floor on the way up. Say you’re on the 2nd floor, needing to go to the first, but the elevator is on it’s way up to the 4th floor. You’ll have to ride all the way to the top then be taken down. I’ve never seen another elevator in any building that is so poorly programmed.•	There are no soap dishes built into the sink, and no external soap dishes, so you’ll either have soap residue all over your bathroom countertop, or a bar of soap covered in toothpaste.•	The towels are too small and feel like they are made of sandpaper. Coming from the hotel hospitality industry myself, I can tell you that these towels are manufactured for auto shops or cleaning purposes. They’re not designed to dry people getting out of showers/baths. •	At $94.00 per night, this is not a budget motel. You can stay at a Holiday Inn Express, Hampton Inn, or any other comparable hotel and have a much, much better experience than you will at the Clarion. If you want this experience, save yourself a few bucks and stay in a budget motel like Motel 8 or Quality Inn for $39-$60. There is nothing special about this location, so you won’t miss anything.•	The hotel is littered with truckers who will wake you up at all hours of the night either fighting with each other or stumbling after a night out drinking in some vacant parking lot.•	On Friday/Saturday nights the hotel lobby fills with smoke because the bar off the lobby becomes a sort of urban club. It does not attract the most savory characters.•	One 1 night I had a young woman and large man knock on my door asking for “Moose.” I told here I was not Moose and she asked “are you sure, because Moose called and told me to meet him in room ***.” This was my first experience with a hotel prostitute. It was nothing like Pretty Woman, let me tell you. She stood outside my door yelling at someone on the phone for 5 minutes about her frustration. •	Every time I tried to call the front desk from the room phone I got a busy signal. I usually tried 5-10 times just to see if I could get through. There is no queue for the phones. If you want to get the front desk, call from your cell phone. You’ll get right through. The front desk number is on the phone in the room. The “Room Service” button does not go anywhere. It is a non-functioning button. Shocker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r304535417-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>304535417</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Go Somewhere Else!</t>
+  </si>
+  <si>
+    <t>Checked in at the Clarion Friday at 1:45 a (fried chicken and a burger).nd was told that check in was not until 3 and would have to wait (despite the entire place was empty) so, we waited at the restaurant and had lunch. Big Mistake. Service was terrible and s l o w. They had water or lemonade. No tea, no sodas. We waited, Waited. Waited. The Mgr. checked on us and asked the servers what was taking so long for our food. The waitress brought in food from Cracker Barrel to the kitchen. 2 minutes later our food came out. The Mgr. comped our food.Checked in at 3 and went to room. No wifi, no air conditioning, and the phone did not work. I went to the desk and was told maintenance would be right up.3 hours later - they move us to another room - "a room upgrade" - that was smaller and had rat holes chewed through the curtain that blocked a lovely view of the interstate. Carpets are dirty and bed comforter is stained.We're still here and can't wait to get home.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Checked in at the Clarion Friday at 1:45 a (fried chicken and a burger).nd was told that check in was not until 3 and would have to wait (despite the entire place was empty) so, we waited at the restaurant and had lunch. Big Mistake. Service was terrible and s l o w. They had water or lemonade. No tea, no sodas. We waited, Waited. Waited. The Mgr. checked on us and asked the servers what was taking so long for our food. The waitress brought in food from Cracker Barrel to the kitchen. 2 minutes later our food came out. The Mgr. comped our food.Checked in at 3 and went to room. No wifi, no air conditioning, and the phone did not work. I went to the desk and was told maintenance would be right up.3 hours later - they move us to another room - "a room upgrade" - that was smaller and had rat holes chewed through the curtain that blocked a lovely view of the interstate. Carpets are dirty and bed comforter is stained.We're still here and can't wait to get home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r301328521-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>301328521</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Wrong again</t>
+  </si>
+  <si>
+    <t>Well, we should learn from our mistakes. We stayed here in 2013 and everything was a mess with a remodel. I thought that it might be better the second time around. Wrong, there was no phone in the room, no wash cloths, no soap, shampoo and only one lamp had a bulb in it. Also, the outside secure door lock was busted. Oops. Never again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r266909437-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>266909437</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Don't waste your money!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our truck is in the shop and this was the hotel the shop recommended. We were happy to see that it had a pool and hot tub. Well, the pool looks pretty dirty and the hot tub is disgusting. The wifi wasn't working so we called the front desk to ask why. We were told "the IT guy has been working on it for weeks"!  Ugh. There are better hotels in the area for half the price of this one. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r264727522-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>264727522</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>South Dallas</t>
+  </si>
+  <si>
+    <t>Very nice hotel nice clean rooms knowledgeable staff excellent breakfast buffet with fresh made to omelets this is my favorite hotel to stay in when I am in the Dallas area it is conveniently located near stores and a short drive from downtown Dallas it is a very nice and quiet place to stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r264407584-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>264407584</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Nice rooms.  A few downsides.</t>
+  </si>
+  <si>
+    <t>I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have...I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have liked to got in it before 6am (the time it was opened.)  All in all, it's was an OK hotel, just not up to what I expected from a Clarion.MoreShow less</t>
+  </si>
+  <si>
+    <t>I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have...I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have liked to got in it before 6am (the time it was opened.)  All in all, it's was an OK hotel, just not up to what I expected from a Clarion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r233831499-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>233831499</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Youngracing</t>
+  </si>
+  <si>
+    <t>Was in town for the NHRA Race in Ennis, Texas. Hotel was a little far from was race but I am glad I chose this paticular location. Rooms were clean and staff was great. Free breakfast was a real hot breakfast with eggs cooked to order. The hotel was located on I35 with easy on and easy off, great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>jerry s, Manager at Magnuson Grand DeSoto, responded to this reviewResponded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Was in town for the NHRA Race in Ennis, Texas. Hotel was a little far from was race but I am glad I chose this paticular location. Rooms were clean and staff was great. Free breakfast was a real hot breakfast with eggs cooked to order. The hotel was located on I35 with easy on and easy off, great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r233488682-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>233488682</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Hazardous  avoid at all cost</t>
+  </si>
+  <si>
+    <t>Had a preset contract for tax exempt stay and they refuse to honor it. Pool was dirtyHot tub was COLDSome rooms has moldHad to daily recard my room keyHotel broke federal law and had elevator broken down for over 10 hours. One individual from my group broke his knee caring luggage down stairs because elevator broken. Hotel needs new management, new rooms, new renovation or permanent closure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Had a preset contract for tax exempt stay and they refuse to honor it. Pool was dirtyHot tub was COLDSome rooms has moldHad to daily recard my room keyHotel broke federal law and had elevator broken down for over 10 hours. One individual from my group broke his knee caring luggage down stairs because elevator broken. Hotel needs new management, new rooms, new renovation or permanent closure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r225934462-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>225934462</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Ok for the price</t>
+  </si>
+  <si>
+    <t>Hotel was alright, nothing wrong. Service was excellent they were very nice and helpful to my family and I. Location was good right off the interstate easy to find so very convient. We enjoyed our stay for our family reunion.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was alright, nothing wrong. Service was excellent they were very nice and helpful to my family and I. Location was good right off the interstate easy to find so very convient. We enjoyed our stay for our family reunion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r217477810-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>217477810</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel with great prices and friendly service that is outstanding.</t>
+  </si>
+  <si>
+    <t>We checked in on Monday and was treated so nice . I've stayed at higher priced motels that was not so polite.Room was very clean, a/c was cooling the room icy. Which Texas is very hot in July. Mr. Oscar, Andrea, and Ernest made our stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeremiah S, Manager at Magnuson Grand DeSoto, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>We checked in on Monday and was treated so nice . I've stayed at higher priced motels that was not so polite.Room was very clean, a/c was cooling the room icy. Which Texas is very hot in July. Mr. Oscar, Andrea, and Ernest made our stay great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r216105320-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>216105320</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>An older hotel with a nice breakfast.</t>
+  </si>
+  <si>
+    <t>An older hotel with a nice breakfast.  Nice pool area with lots of comfortable seating.  The room was ok and the AC was abnormally loud but that helped cover up the highway noise.   The price for the area was very competitive but unless you are a family or someone with pets, I think I might look elsewhere.   If I stay again, I will ask for a room away from the highway.   The hotel staff was very personable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>jerry s, Manager at Magnuson Grand DeSoto, responded to this reviewResponded July 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2014</t>
+  </si>
+  <si>
+    <t>An older hotel with a nice breakfast.  Nice pool area with lots of comfortable seating.  The room was ok and the AC was abnormally loud but that helped cover up the highway noise.   The price for the area was very competitive but unless you are a family or someone with pets, I think I might look elsewhere.   If I stay again, I will ask for a room away from the highway.   The hotel staff was very personable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r215936748-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>215936748</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>This hotel has it all, when you first walk in you are greeted not only by the friendly staff and management but you are greeted with a fresh and clean smelling place, in my book smell tells it all. Rooms are great, family and pet friendly. The overall look on the inside as you walk around is calming with plenty of sitting areas. And the breakfast they offer free is really good. I will be back next time with the whole family .MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has it all, when you first walk in you are greeted not only by the friendly staff and management but you are greeted with a fresh and clean smelling place, in my book smell tells it all. Rooms are great, family and pet friendly. The overall look on the inside as you walk around is calming with plenty of sitting areas. And the breakfast they offer free is really good. I will be back next time with the whole family .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r204386151-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>204386151</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>So DIFFERENT!</t>
+  </si>
+  <si>
+    <t>Okay let me start by saying I was sort of leery about visiting this hotel because of the bad reviews, but after staying here I am blown away. To start with there was an issue with the reservation, I needed a king size bed but the travel agency booked me into a room with two beds, because I booked through a travel agent and Elias, "Mr Hospitality" as he referred to himself, (I told you I would make you famous lol) was so accommodating. He went way above and beyond the call of duty to make the change, even carried my bags up to my room. I didn't think this was part of the service but he made it seem so natural. I checked out the lounge and restaurant after checking in and everyone was so nice. I am sorry I cant remember the bartenders name but she was so sweet. She was there on a Monday night. Last thing I have to mention is the amazing atrium. It was very scenic for a hotel. Thanks and I'll see you guys soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Okay let me start by saying I was sort of leery about visiting this hotel because of the bad reviews, but after staying here I am blown away. To start with there was an issue with the reservation, I needed a king size bed but the travel agency booked me into a room with two beds, because I booked through a travel agent and Elias, "Mr Hospitality" as he referred to himself, (I told you I would make you famous lol) was so accommodating. He went way above and beyond the call of duty to make the change, even carried my bags up to my room. I didn't think this was part of the service but he made it seem so natural. I checked out the lounge and restaurant after checking in and everyone was so nice. I am sorry I cant remember the bartenders name but she was so sweet. She was there on a Monday night. Last thing I have to mention is the amazing atrium. It was very scenic for a hotel. Thanks and I'll see you guys soon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r198056857-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>198056857</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible! </t>
+  </si>
+  <si>
+    <t>Under construction...I guess? If so nothing is being fixed! Is very dirty and has a awful smell, even the water smell like pond water. Don't be fooled by their pictures, the pool &amp; hot tub do not work! There is nothing fun about as I feel they took my hard earned money!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeremiah S, Manager at Magnuson Grand DeSoto, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Under construction...I guess? If so nothing is being fixed! Is very dirty and has a awful smell, even the water smell like pond water. Don't be fooled by their pictures, the pool &amp; hot tub do not work! There is nothing fun about as I feel they took my hard earned money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r195954202-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>195954202</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Stay somewhere else..you have been warned</t>
+  </si>
+  <si>
+    <t>Stayed here for a cheer competition at the Dallas Convention center where we had to book through the competition housing with certain hotels.....I waited way too long to reserve, this was all that was left and paid for it apparently in the form of a hotel with ZERO customer service, no hot water, dumpy rooms, closed playground and hot tub, trash everywhere, never any towels at the pool, freeway noise and running toilet nonstop. There are vending machines on each floor that are empty.....I waited at the front desk for 15 minutes to ask for towels to be delivered to the pool since the front desk clerk was MIA....it's now been another 20   minutes and still no towels. BAD experience...can't say you weren't warned. Off to wait at the front desk...AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a cheer competition at the Dallas Convention center where we had to book through the competition housing with certain hotels.....I waited way too long to reserve, this was all that was left and paid for it apparently in the form of a hotel with ZERO customer service, no hot water, dumpy rooms, closed playground and hot tub, trash everywhere, never any towels at the pool, freeway noise and running toilet nonstop. There are vending machines on each floor that are empty.....I waited at the front desk for 15 minutes to ask for towels to be delivered to the pool since the front desk clerk was MIA....it's now been another 20   minutes and still no towels. BAD experience...can't say you weren't warned. Off to wait at the front desk...AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r175320682-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>175320682</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Not the best but not the worst!</t>
+  </si>
+  <si>
+    <t>This was a little staycation for my family.  Check-in was ok; the room was ok but a bit dated.  The room was clean but apparently the cleaning person likes to use a bit to much furniture polish...some areas were very oily.  Very limited channels and no premium channel available.  Beds need to be updated.  We had 2 double beds.  The one my son slept on was ok; however, the one my husband and I shared had a dip in the middle.  Small microwave, decent mini-frige, small flat screen TV were nice.  Free breakfast was offered.  They had a nice combination of hot breakfast (eggs, sausage, gravy, etc.) and continental breakfast items.  Pool was indoors but seemed deeper than what was stated (ranged from 3 feet to 6 feet).  Housekeeping took a while to clean the room.  One day, we left the room around 10 a.m. and did not return until after 5 p.m. and the room still had not been cleaned.  The next day we were gone for most of the day.  When we returned after 10 p.m., the beds were made but the bathroom didn't seem like it was touched. (no replacing toiletries or towels).  Overall, it was not the worst that I have been to, but it's not the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This was a little staycation for my family.  Check-in was ok; the room was ok but a bit dated.  The room was clean but apparently the cleaning person likes to use a bit to much furniture polish...some areas were very oily.  Very limited channels and no premium channel available.  Beds need to be updated.  We had 2 double beds.  The one my son slept on was ok; however, the one my husband and I shared had a dip in the middle.  Small microwave, decent mini-frige, small flat screen TV were nice.  Free breakfast was offered.  They had a nice combination of hot breakfast (eggs, sausage, gravy, etc.) and continental breakfast items.  Pool was indoors but seemed deeper than what was stated (ranged from 3 feet to 6 feet).  Housekeeping took a while to clean the room.  One day, we left the room around 10 a.m. and did not return until after 5 p.m. and the room still had not been cleaned.  The next day we were gone for most of the day.  When we returned after 10 p.m., the beds were made but the bathroom didn't seem like it was touched. (no replacing toiletries or towels).  Overall, it was not the worst that I have been to, but it's not the best.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1403,2241 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>225</v>
+      </c>
+      <c r="X29" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>225</v>
+      </c>
+      <c r="X30" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>225</v>
+      </c>
+      <c r="X31" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>246</v>
+      </c>
+      <c r="X32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>255</v>
+      </c>
+      <c r="X33" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>255</v>
+      </c>
+      <c r="X34" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>276</v>
+      </c>
+      <c r="X36" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>276</v>
+      </c>
+      <c r="X37" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>288</v>
+      </c>
+      <c r="K38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" t="s">
+        <v>290</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>291</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_525.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_525.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Host2</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r524999752-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>saxyskip2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r524424692-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>jaydee501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r508550924-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>We arrived and the lobby was HOT no A/C working. Upon checking in, no one told me that the A/C in the rooms didn't work until we got there. We enter the rooms and there were stains on the carpet, walls, and covers. The table in the furniture in the rooms were unstable. The A/C in ever odd room did not work. There were little to no staff working to check us in. The elevator work so slow to take is to the room that we decided it would be faster to walk the stairs instead, not this is with luggage. The only good thing about this place is they gave us little to no problem letting us check out so we could find a better hotel. Oh P.S dont book if you're bringing a church. There's a club in the lobby, you can hear the music in your room all night. The hotel has great potential but a lot needs to change More</t>
   </si>
   <si>
+    <t>Tina D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r507473831-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I...THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I get to the room and soon as I walked in the heat hit me in my face, called down to the front desk and was informed that they would send someone up to check it.  We waited for 25 minutes and still no one had showed up, so I hiked back to the elevator (where we had to wait again) go back to the front and he gives me another room, hike another half mile to the slow elevator and get to the other room and it wreaked of smoked really bad and guess what there was no air in this room as well!!!!!  I was traveling with a 5 &amp; 7 year old which both have asthma and eczema so this was definitely a problem, so I go back to the counter and at this point I am HOT, MISERABLE, TIRED OF WALKING FROM COUNTER TO ROOM, ELEVATOR TAKING FOREVER, I ask to speak with manager and the front desk state they are working on the air to give it 30 minutes (are you serious it took me 1 HOUR to get checked in) as I am speaking with the clerk my Uncle comes down and states that his room wasn’t clean and the air wasn’t working.  There was an old slice of pizza that appeared to be some days old along with some dried up chocolate candy and a soda can in his room.  He assured they were going to take care of it, after an hour went by and still no air or signs of mechanics in the area then me and my family went across the street got a better rate (and it wasn’t a group rate) a clean hotel, amazing hot breakfast and superb Customer Service.  Never ever again will I stay at any of these chains with the word Magnuson, this is considered the BATES MOTEL in my opinion.  Do yourself a favor and don’t step foot into this location.  They also have a club connected to the hotel, so if this is the case why not let the church group know that and don’t book a room over the club, but that wasn’t the case for some of the other church members getting awakened from loud music.  While standing in line to check in I dropped my cell phone and it broke and if it wasn’t for that I would have pictures to show.  More</t>
   </si>
   <si>
+    <t>dhdrholmes94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r499292066-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>wrp61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r487147756-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>Very clean hotel with helpful staff, nice indoor pool, excellent restaurant, with good prices, near waffle house and cracker barrel. Would stay here again. Was a business trip but nice location near dallasMore</t>
   </si>
   <si>
+    <t>jayquan r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r477075942-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>toxadams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r470409268-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
   </si>
   <si>
     <t>Many children about the swimming pool area, noise in the hallways, children were going up and down on the elevator. Bathrooms very untidy.  Would not recommend. Customer service  and breakfast were great.</t>
+  </si>
+  <si>
+    <t>Dreddel110</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r437222019-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -353,6 +383,9 @@
 This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with...When you first walk in to this place you are greeted by a very nice looking lobby all marble tile, high polish on the wood surfaces, and generally looks like a very nice place.This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with clean linens just the old ones reused) and replace the towels. The sign for the club said closing time was midnight but they were closed before 11pm. Unlike most all mid level hotel/motels that offer a free breakfast you have to pay for breakfast and it costs $5.95I definitely would not ever stay here again.More</t>
   </si>
   <si>
+    <t>dlady360</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r436152873-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -374,6 +407,9 @@
     <t>This was the 1st Choice Privilege hotel that I experienced the worst possible stay. This hotel is unsuitable to be staying in. The hotel staff checked me in by leaning over the keyboard, unfriendly. Only one slow elevator for 4 floors. When you get off the elevator smells like mildew and you almost can fall through the floor. Go into the room, old furniture, tables half cleaned, TV remote doesn't work, and sink in restroom drains really slow. Water sits for about 20 minutes. I will never stay at this hotel again. Oh and not to mention NO ICE MACHINES WORK. Housekeeping comes in and smears mirror with a rag. Just Horrible.More</t>
   </si>
   <si>
+    <t>Jean L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r430448297-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -398,6 +434,9 @@
     <t>Before I begin, I want to state that I booked this direct through the Choice Hotel website, and requested one of their "nicer" rooms....The volume on the TV didn't work, so I called the front desk.  They advised they would send maintenance.  About an hour later the front desk called back to confirm the specific problem and advised they would bring us a new remote for the TV.  We never heard from them again!!!  Really?!?  The A/C was SOOOOOOO loud that it literally sounded like an airplane taking off!  We decided to use the frig, had to plug it in, only to find out that it was almost as loud as the A/C!!!  To top this off, we were on the side by the freeway and the soundproofing was so bad you could hear every vehicle go by!!  The elevator was so slow, it was hard to tell if it was working.  There was a sign on the ice machine on our third floor that the ice machines on the 2nd, 3rd, and 4th floor were out of order, with instructions to go to the first floor for ice!  The halls and public areas (except for the front lobby!) are in desperate need of basic repairs, seriously cleaning, and painting.  This is a horrible example of a "Choice" hotel, and I strongly suggest they remove their name from this joke of a hotel.More</t>
   </si>
   <si>
+    <t>Trish H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r400110061-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -416,6 +455,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>judith P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r398900338-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -434,6 +476,9 @@
     <t>This is the worst hotel we have ever been to in my life. Holes in the wall by the box a.c. That is old and load. The room was not clean. The hotel was not clean. Old TV and you can not hook up my Xbox. One up to the tv. Because they broke the TV so you can't do this and the manager is not smart he said that the Xbox would break the TV ... What... I don't think so. The Internet is so bad that you can't even play on you phone. And the place is not safe for kids .. and when we stayed for one night my son was deathly sick because of this place stay away ..More</t>
   </si>
   <si>
+    <t>RLeave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r394306187-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -452,6 +497,9 @@
     <t>The bed comfortable, and the hotel quiet, but the sink leaks, the toilet leaks, the shower leaks, the TV volume did not work, the internet was good, until it died, tried to call the front desk, the phone did not work, the carpets in the hallway were beat and dirty, the parking lot was dirty, the doors to the outside did not work with the key card, but one was held open by a stick at 5AM.  An older hotel in need of a refresh, but considering the price (under $100) was OK.  The breakfast was very good, a buffet offered in the dining room, definitely a step up from other Choice Hotels.More</t>
   </si>
   <si>
+    <t>adtims</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r381157798-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -473,6 +521,9 @@
     <t>I booked my reservation in February 2016 for a family vacation in May 2016.I called hotel to confirm my reservation, and the price. I was advised that I was booked for one night, when I reserved for three nights. The hotel stated that when I arrive that it would be corrected. Not, when I arrived, I was still booked for one night and was told I had to change rooms the next morning. I booked a 2 room suite, which was not available, I was told that they would "comp" me for the 2 nights I had to change rooms. this was not note on my bill. the suite I received was  a one bedroom with a pull out sofa. and the bedroom was upstairs. my spouse is handicap and could not climb the stairs.  I was told that they would give me a discount for the inconvenience. when I went to change my room the manager stated he never told me that he would "comp" the next two nights, he called me a liar. the room I was moved to, the air conditioner didn't work, the refrigerator, and microwave didn't work. the desk clerk assured me that he would not charge me for the two nights, however, the discount for the inconvenience was not given to me. worst stay ever.More</t>
   </si>
   <si>
+    <t>highenuff77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r380949199-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -491,6 +542,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Apostillados</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r380508719-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -512,6 +566,9 @@
     <t>MCM Grande Hotel use to be... now changed name, ownres and management; which makes it the worst place to stay in DeSoto / Lancaster / South Dallas area,No hot water, dust allover the room, the halls, and the hallway door entrance was out of service; so I had to go all around to get to the car.I stayed several times before, but this time I invited my son to stay here; for which I am very very dissapointed and very angry.No breakfast early morning as it should, toaster was not working properly - lightly toasted, or black burned bagels or waffles.... hard like an ice cube individual butter, just orange marmalades, and forever to get a simple two egg, ham and cheese omelette.More</t>
   </si>
   <si>
+    <t>Fayettenam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r337086546-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -530,6 +587,9 @@
     <t>This hotel, probably in its prime was very nice!  That could have been more than 30 years ago, however.  Huge lobby, in which they have made some upgrades.  They do offer complimentary breakfast, with a chef for omelets, and decent selection of other things.  The fitness center has three pieces of equipment, two of which don't work, the TV also doesn't work in there either.  The hotel does offer free Wifi, although, there really wasn't a spot in the room, where you could actually get it.  The hallway, had a strong signal, however, you don't really want to hang out in the hallway.  The room had an AC/Heater window unit, that sounded a bit like a jet taking off, however, it did it's job, if you can handle the noise.More</t>
   </si>
   <si>
+    <t>Heather V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r327618403-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -548,6 +608,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>bonikashears</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r326867537-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -570,6 +633,9 @@
   </si>
   <si>
     <t>We are on the road all the time. When I sat to write my review I was flabbergasted at the other low reviews. I LOVE this hotel. Breakfast which is free has a chef making fresh omelets. Our suite is the nicest we have ever stayed in. Used it for a training class. Bedroom upstairs, fireplace, balcony which over looks the atrium. The balcony alone is bigger than most hotel rooms. Lovely hotel. Live piano music. Friendly helpful staff. Unless everything has been revamped, i am confused by the previously low reviews. I was totally delighted and have plans to stay here again. Thinking about bringing a convention here because there are many large meeting rooms. We did eat lunch here. Service was a little slow but the food was tasty and generous. It is such a beautiful hotel inside I wouldn't have noticed the wait except for reading the others reviews. Price of the room was a real value for what we got. Only downside as far as I could see is that there is no airport shuttle. Photo is the downstairs of our suite.More</t>
+  </si>
+  <si>
+    <t>Kenny_login2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r306611108-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -596,6 +662,9 @@
 •	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not...You can tell that 20 years ago this was a pretty decent hotel (albeit short on elevators). Since going under new ownership 4 years ago, the hotel has fallen apart, and ownership could care less (according to several employees I spoke with in the restaurant and at the front desk). They are only concerned with keeping the rooms full for truckers from the trucking companies they have contracts with, and of truckers don’t have the highest standards for living. To them, any roof with air conditioning that isn’t a truck or a trailer might as well be the Waldorf Astoria. For the rest of us though, here are a few bullet points illustrating the problems I had with the Clarion in Desoto Texas. Needless to say, Clarion’s corporate office should be ashamed to have this location on their roster, and they need to come in to do a complete overhaul of both the facilities and the staff (specifically, ownership).•	The air vent in my room was absolutely filthy. HERE’S A PHOTO: (http://i.imgur.com/WRcCFqd.jpg)•	On two days the room was not cleaned. I did not leave a “Do Not Disturb” sign on the front of the door.  Even in the worst hotel/motel, I’ve never had a room skipped for cleaning.•	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not been fixed. I reported this to the front desk every day during my stay, and every day the front desk said “this is the first we’ve heard about this.”  When I left the hotel they were still inoperable.  •	Hotel wifi is never the best, but the wifi at Clarion Desoto is unforgivably bad. It drops for 30 minutes to 1 hour at a time. Even with an antenna (to boost reception) the service dropped if I tried to load a page with video, or if I had webpages loading in multiple tabs. It was the slowest internet I’ve dealt with since 1996-98 in the 56k Dial-Up days.•	During two separate showers maintenance knocked on my door, and shouted through the door that they needed to come into my room because water was leaking to the floor below.  •	On 3 separate days my dirty towels were removed (as well as the unused towels), but no clean towels were left.  The 3rd time the hotel staff came to my door to deliver towels to fix the mistake, he was talking on his Android phone (on speaker, of course) to a friend from outside work. He gave me the towels and barely made eye contact, but simply put the towels in my hand and walked away. Neither he or the front desk apologized for the mistake.•	There are 4 floors in the hotel, but only 1 elevator. The stairs are on the 2 far ends of the hotel, so not convenient if you are staying in a room in the middle of the hotel, and completely dangerous if there is a fire in the hotel.  •	The tubs cannot be plugged if you would prefer to take a bath. I assume this is because the showers leak.  •	There are 4 Coca Cola machines in the hotel. The only working machine is on the 4th floor. It can take a card, but not cash. The 3 other machines decline your card and reject cash ($1 bills or Quarters).  •	Most (7 out of 8) of the light fixtures outside of the elevators are broken/cracked.  HERE’S A PHOTO (http://i.imgur.com/CsPzshh.jpg)•	2 of the 4 lamps in my room did not have working light bulbs. This was reported, but never fixed.  •	Coffee/Tea was never replaced in my room. I had to call down every evening to have someone bring it up (usually with the towels they forgot to replace)•	“Continental Breakfast” includes (every day): Scrambled Eggs, dry biscuits, very dry/tasteless sausage links, very dry/tasteless sliced potatoes, and generic jelly danishes. There is no fruit.•	The staff members at the front desk dress professionally, but the rest of the staff never clean their work clothes or tuck in their shirts. Many of the shirts have pink bleech spots on them.•	There is no freight elevator, so you spend as much time waiting on the 1 elevator because the staff is riding it as you do because other guests are riding it.  •	If the elevator is going up, and you need to go down, it will stop on your floor on the way up. Say you’re on the 2nd floor, needing to go to the first, but the elevator is on it’s way up to the 4th floor. You’ll have to ride all the way to the top then be taken down. I’ve never seen another elevator in any building that is so poorly programmed.•	There are no soap dishes built into the sink, and no external soap dishes, so you’ll either have soap residue all over your bathroom countertop, or a bar of soap covered in toothpaste.•	The towels are too small and feel like they are made of sandpaper. Coming from the hotel hospitality industry myself, I can tell you that these towels are manufactured for auto shops or cleaning purposes. They’re not designed to dry people getting out of showers/baths. •	At $94.00 per night, this is not a budget motel. You can stay at a Holiday Inn Express, Hampton Inn, or any other comparable hotel and have a much, much better experience than you will at the Clarion. If you want this experience, save yourself a few bucks and stay in a budget motel like Motel 8 or Quality Inn for $39-$60. There is nothing special about this location, so you won’t miss anything.•	The hotel is littered with truckers who will wake you up at all hours of the night either fighting with each other or stumbling after a night out drinking in some vacant parking lot.•	On Friday/Saturday nights the hotel lobby fills with smoke because the bar off the lobby becomes a sort of urban club. It does not attract the most savory characters.•	One 1 night I had a young woman and large man knock on my door asking for “Moose.” I told here I was not Moose and she asked “are you sure, because Moose called and told me to meet him in room ***.” This was my first experience with a hotel prostitute. It was nothing like Pretty Woman, let me tell you. She stood outside my door yelling at someone on the phone for 5 minutes about her frustration. •	Every time I tried to call the front desk from the room phone I got a busy signal. I usually tried 5-10 times just to see if I could get through. There is no queue for the phones. If you want to get the front desk, call from your cell phone. You’ll get right through. The front desk number is on the phone in the room. The “Room Service” button does not go anywhere. It is a non-functioning button. Shocker.More</t>
   </si>
   <si>
+    <t>Barry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r304535417-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -617,6 +686,9 @@
     <t>Checked in at the Clarion Friday at 1:45 a (fried chicken and a burger).nd was told that check in was not until 3 and would have to wait (despite the entire place was empty) so, we waited at the restaurant and had lunch. Big Mistake. Service was terrible and s l o w. They had water or lemonade. No tea, no sodas. We waited, Waited. Waited. The Mgr. checked on us and asked the servers what was taking so long for our food. The waitress brought in food from Cracker Barrel to the kitchen. 2 minutes later our food came out. The Mgr. comped our food.Checked in at 3 and went to room. No wifi, no air conditioning, and the phone did not work. I went to the desk and was told maintenance would be right up.3 hours later - they move us to another room - "a room upgrade" - that was smaller and had rat holes chewed through the curtain that blocked a lovely view of the interstate. Carpets are dirty and bed comforter is stained.We're still here and can't wait to get home.More</t>
   </si>
   <si>
+    <t>Cmichaeld1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r301328521-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -632,6 +704,9 @@
     <t>Well, we should learn from our mistakes. We stayed here in 2013 and everything was a mess with a remodel. I thought that it might be better the second time around. Wrong, there was no phone in the room, no wash cloths, no soap, shampoo and only one lamp had a bulb in it. Also, the outside secure door lock was busted. Oops. Never again.</t>
   </si>
   <si>
+    <t>TruckerLynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r266909437-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -650,6 +725,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>trvlr53180</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r264727522-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -665,6 +743,9 @@
     <t>Very nice hotel nice clean rooms knowledgeable staff excellent breakfast buffet with fresh made to omelets this is my favorite hotel to stay in when I am in the Dallas area it is conveniently located near stores and a short drive from downtown Dallas it is a very nice and quiet place to stay</t>
   </si>
   <si>
+    <t>WinthropJQuiggy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r264407584-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -683,6 +764,9 @@
     <t>I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have...I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have liked to got in it before 6am (the time it was opened.)  All in all, it's was an OK hotel, just not up to what I expected from a Clarion.More</t>
   </si>
   <si>
+    <t>Craig Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r233831499-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -710,6 +794,9 @@
     <t>Was in town for the NHRA Race in Ennis, Texas. Hotel was a little far from was race but I am glad I chose this paticular location. Rooms were clean and staff was great. Free breakfast was a real hot breakfast with eggs cooked to order. The hotel was located on I35 with easy on and easy off, great location.More</t>
   </si>
   <si>
+    <t>Stephen E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r233488682-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -731,6 +818,9 @@
     <t>Had a preset contract for tax exempt stay and they refuse to honor it. Pool was dirtyHot tub was COLDSome rooms has moldHad to daily recard my room keyHotel broke federal law and had elevator broken down for over 10 hours. One individual from my group broke his knee caring luggage down stairs because elevator broken. Hotel needs new management, new rooms, new renovation or permanent closure.More</t>
   </si>
   <si>
+    <t>Nanique22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r225934462-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -749,6 +839,9 @@
     <t>Hotel was alright, nothing wrong. Service was excellent they were very nice and helpful to my family and I. Location was good right off the interstate easy to find so very convient. We enjoyed our stay for our family reunion.More</t>
   </si>
   <si>
+    <t>paps65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r217477810-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -773,6 +866,9 @@
     <t>We checked in on Monday and was treated so nice . I've stayed at higher priced motels that was not so polite.Room was very clean, a/c was cooling the room icy. Which Texas is very hot in July. Mr. Oscar, Andrea, and Ernest made our stay great.More</t>
   </si>
   <si>
+    <t>rushber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r216105320-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -800,6 +896,9 @@
     <t>An older hotel with a nice breakfast.  Nice pool area with lots of comfortable seating.  The room was ok and the AC was abnormally loud but that helped cover up the highway noise.   The price for the area was very competitive but unless you are a family or someone with pets, I think I might look elsewhere.   If I stay again, I will ask for a room away from the highway.   The hotel staff was very personable.More</t>
   </si>
   <si>
+    <t>Grammabigtruck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r215936748-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -818,6 +917,9 @@
     <t>This hotel has it all, when you first walk in you are greeted not only by the friendly staff and management but you are greeted with a fresh and clean smelling place, in my book smell tells it all. Rooms are great, family and pet friendly. The overall look on the inside as you walk around is calming with plenty of sitting areas. And the breakfast they offer free is really good. I will be back next time with the whole family .More</t>
   </si>
   <si>
+    <t>Rosalba D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r204386151-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -839,6 +941,9 @@
     <t>Okay let me start by saying I was sort of leery about visiting this hotel because of the bad reviews, but after staying here I am blown away. To start with there was an issue with the reservation, I needed a king size bed but the travel agency booked me into a room with two beds, because I booked through a travel agent and Elias, "Mr Hospitality" as he referred to himself, (I told you I would make you famous lol) was so accommodating. He went way above and beyond the call of duty to make the change, even carried my bags up to my room. I didn't think this was part of the service but he made it seem so natural. I checked out the lounge and restaurant after checking in and everyone was so nice. I am sorry I cant remember the bartenders name but she was so sweet. She was there on a Monday night. Last thing I have to mention is the amazing atrium. It was very scenic for a hotel. Thanks and I'll see you guys soon!!More</t>
   </si>
   <si>
+    <t>Jennifer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r198056857-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -863,6 +968,9 @@
     <t>Under construction...I guess? If so nothing is being fixed! Is very dirty and has a awful smell, even the water smell like pond water. Don't be fooled by their pictures, the pool &amp; hot tub do not work! There is nothing fun about as I feel they took my hard earned money!More</t>
   </si>
   <si>
+    <t>Kimberley S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r195954202-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -882,6 +990,9 @@
   </si>
   <si>
     <t>Stayed here for a cheer competition at the Dallas Convention center where we had to book through the competition housing with certain hotels.....I waited way too long to reserve, this was all that was left and paid for it apparently in the form of a hotel with ZERO customer service, no hot water, dumpy rooms, closed playground and hot tub, trash everywhere, never any towels at the pool, freeway noise and running toilet nonstop. There are vending machines on each floor that are empty.....I waited at the front desk for 15 minutes to ask for towels to be delivered to the pool since the front desk clerk was MIA....it's now been another 20   minutes and still no towels. BAD experience...can't say you weren't warned. Off to wait at the front desk...AGAIN.More</t>
+  </si>
+  <si>
+    <t>CloseNeighbor</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r175320682-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -1407,43 +1518,47 @@
       <c r="A2" t="n">
         <v>24574</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>167811</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1457,50 +1572,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24574</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1514,50 +1633,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24574</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>167812</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1575,50 +1698,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24574</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>167813</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1632,41 +1759,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24574</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>167814</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -1685,50 +1816,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24574</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>167815</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1742,50 +1877,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24574</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>167816</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1803,56 +1942,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24574</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>167817</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1866,41 +2009,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24574</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>167818</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1919,50 +2066,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24574</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>167819</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1980,50 +2131,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24574</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>167820</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2041,50 +2196,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24574</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>14527</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2098,50 +2257,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24574</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>167821</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2159,50 +2322,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24574</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>167822</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2216,50 +2383,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24574</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>167823</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2277,50 +2448,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24574</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>167824</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2340,50 +2515,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24574</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>49867</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2401,50 +2580,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24574</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>167825</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2462,41 +2645,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24574</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>17204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -2515,50 +2702,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24574</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>17843</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2572,50 +2763,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24574</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>167826</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2627,47 +2822,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24574</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>167827</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2686,50 +2885,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24574</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>3451</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2749,50 +2952,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24574</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>167828</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2810,50 +3017,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24574</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>167829</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2867,50 +3078,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24574</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>167830</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -2924,50 +3139,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24574</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>167831</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -2987,50 +3206,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24574</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>167832</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3048,56 +3271,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="X29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24574</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>14765</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3109,47 +3336,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="X30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24574</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>167833</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -3176,47 +3407,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="X31" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24574</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>167834</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
@@ -3243,56 +3478,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="X32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24574</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3310,47 +3549,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="X33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24574</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>167835</v>
+      </c>
+      <c r="C34" t="s">
+        <v>290</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -3377,56 +3620,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="X34" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24574</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>167836</v>
+      </c>
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3450,41 +3697,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24574</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7874</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -3501,56 +3752,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="X36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24574</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>40563</v>
+      </c>
+      <c r="C37" t="s">
+        <v>314</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3562,56 +3817,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>24574</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>167837</v>
+      </c>
+      <c r="C38" t="s">
+        <v>322</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -3635,7 +3894,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_525.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_525.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,138 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Host2</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r605418348-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>55736</t>
+  </si>
+  <si>
+    <t>107164</t>
+  </si>
+  <si>
+    <t>605418348</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Don`t STAY!!!!!</t>
+  </si>
+  <si>
+    <t>The only thing good about this hotel is the bar area....I believe the bar's name is BobbieSocks. Great drinks/Great staff. The hotel sucks! Smelly AND DIRTY! OUTDATED FURNITURE  Who ever owns this chain should be ashamed of themselves!! They should book one night and we guarantee they'll check out in an hour, forget that, 30 minutes. The hotel isn't deserving of even a 1 star rating.....therefore they get a zero. The front desk area looks upgraded but the rooms suck!!!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r602638758-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>602638758</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the next hotel! </t>
+  </si>
+  <si>
+    <t>Only stopped here cause it was pet friendly and we should’ve drove little further! They said they had satellite tv but must have been down cause we only got a few channels. The room next to us must have been running a business out of the room like a call center cause we could hear them making calls all night long! Inside the room and out side just a group of people smoking and making phone calls. The room was not in good shape at all stains on the floor walls all scratched up and peeling . It says it was a smoke free room maybe it is now but not before, Our room smelled of old stale smoke. Free breakfast that your forced to sit down and eat it there. Was absolutely not allowed to take any to your room.  I was planning to bring my wife back something to eat to the room I explained to the person guarding the food. He said that’s not allowed. That’s a pretty stupid rule! So glad we won’t stay here again I guess this is what I get for letting the wife pick the hotel I was just to tired to care that’s my mistake lol MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Only stopped here cause it was pet friendly and we should’ve drove little further! They said they had satellite tv but must have been down cause we only got a few channels. The room next to us must have been running a business out of the room like a call center cause we could hear them making calls all night long! Inside the room and out side just a group of people smoking and making phone calls. The room was not in good shape at all stains on the floor walls all scratched up and peeling . It says it was a smoke free room maybe it is now but not before, Our room smelled of old stale smoke. Free breakfast that your forced to sit down and eat it there. Was absolutely not allowed to take any to your room.  I was planning to bring my wife back something to eat to the room I explained to the person guarding the food. He said that’s not allowed. That’s a pretty stupid rule! So glad we won’t stay here again I guess this is what I get for letting the wife pick the hotel I was just to tired to care that’s my mistake lol More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r596810230-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>596810230</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel I have ever seen.</t>
+  </si>
+  <si>
+    <t>This hotel appears to have once been very nice.  Now, it is in very poor condition and has not been maintained.  Our interaction with the hotel staff was lukewarm at best and downright rude at its worst.  For starters, the lobby furniture all had cracks in the fake leather seating surfaces and other signs of extreme wear.  There is only one elevator and it sounds as if its on its last leg even when empty.  There were exposed areas of subfloor at the elevator landing and multiple areas with missing baseboard.  The ice maker on our floor did not work.  The hallway lighting was dim.  Once in our room, we found peeling wallpaper, broken glass covering a wall hanging, and electrical outlets dangling from the wall.  The room was supplied with two washcloths and 2 bath towels (no hand towels at all).  When we called to ask for additional towels, we were told that there were none.  There was a small coffee station in the room, but the lid provided did not fit the styrofoam cup provided. I will avoid this hotel brand in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel appears to have once been very nice.  Now, it is in very poor condition and has not been maintained.  Our interaction with the hotel staff was lukewarm at best and downright rude at its worst.  For starters, the lobby furniture all had cracks in the fake leather seating surfaces and other signs of extreme wear.  There is only one elevator and it sounds as if its on its last leg even when empty.  There were exposed areas of subfloor at the elevator landing and multiple areas with missing baseboard.  The ice maker on our floor did not work.  The hallway lighting was dim.  Once in our room, we found peeling wallpaper, broken glass covering a wall hanging, and electrical outlets dangling from the wall.  The room was supplied with two washcloths and 2 bath towels (no hand towels at all).  When we called to ask for additional towels, we were told that there were none.  There was a small coffee station in the room, but the lid provided did not fit the styrofoam cup provided. I will avoid this hotel brand in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r596408408-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>596408408</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>horrible service</t>
+  </si>
+  <si>
+    <t>I was on vacation with my family and took my dog, they gave me a room without air and then they changed me to another one, but the air was not very good either, the room smelled horrible and I had spots of other animals on the floor, my dog It was cleaner than the room I was given .. I went to see my parents' room and also did not read the air, they did not clean the room they just changed the soap and cleaned the horrible toilet! I do not recommend it</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r557809999-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>557809999</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Nice and quiet but much needed upgrades</t>
+  </si>
+  <si>
+    <t>I was brought to the hotel by the shuttle and the driver Ray, I believe was his name, was nice. He accommodated my needs and made sure I had a Cart for the luggage. While checking in I had the pleasure of speaking with Kris. He made me feel as if I was a welcomed guest and his job was to make sure I had what was needed for a comfortable stay. It was nice to talk to a person with not only a great smile, but a sense of humor as my experience with others in Texas....everyone had a ugly face. We laughed a bit and I went to my room which was OK. It does need a face lift on the inside, which I understand is in progress, because the rooms a little bit dark. New AC units and drapery is needed. What I appreciated was the clean linen. After staying at other hotels and having to personally change stained or outright dirty linen at well-known hotels is was great for me. The breakfast is in a comfortable place, sausages, eggs, oatmeal, coffee, cold drinks, biscuits and gravy, and grits. It would be nice to have turkey sausage. The hot station had a guy who made omelets to order. He also had a great personality and tended to the guest. There was no loud noise, no kids running down the hall, no loud music from the room next...I was brought to the hotel by the shuttle and the driver Ray, I believe was his name, was nice. He accommodated my needs and made sure I had a Cart for the luggage. While checking in I had the pleasure of speaking with Kris. He made me feel as if I was a welcomed guest and his job was to make sure I had what was needed for a comfortable stay. It was nice to talk to a person with not only a great smile, but a sense of humor as my experience with others in Texas....everyone had a ugly face. We laughed a bit and I went to my room which was OK. It does need a face lift on the inside, which I understand is in progress, because the rooms a little bit dark. New AC units and drapery is needed. What I appreciated was the clean linen. After staying at other hotels and having to personally change stained or outright dirty linen at well-known hotels is was great for me. The breakfast is in a comfortable place, sausages, eggs, oatmeal, coffee, cold drinks, biscuits and gravy, and grits. It would be nice to have turkey sausage. The hot station had a guy who made omelets to order. He also had a great personality and tended to the guest. There was no loud noise, no kids running down the hall, no loud music from the room next door. Perfect for me. Indoor pool and play area for the kids, the workout area is under a face lift and I will return. Thank you Magnuson Grand for such great customer service and I look forward to my return when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I was brought to the hotel by the shuttle and the driver Ray, I believe was his name, was nice. He accommodated my needs and made sure I had a Cart for the luggage. While checking in I had the pleasure of speaking with Kris. He made me feel as if I was a welcomed guest and his job was to make sure I had what was needed for a comfortable stay. It was nice to talk to a person with not only a great smile, but a sense of humor as my experience with others in Texas....everyone had a ugly face. We laughed a bit and I went to my room which was OK. It does need a face lift on the inside, which I understand is in progress, because the rooms a little bit dark. New AC units and drapery is needed. What I appreciated was the clean linen. After staying at other hotels and having to personally change stained or outright dirty linen at well-known hotels is was great for me. The breakfast is in a comfortable place, sausages, eggs, oatmeal, coffee, cold drinks, biscuits and gravy, and grits. It would be nice to have turkey sausage. The hot station had a guy who made omelets to order. He also had a great personality and tended to the guest. There was no loud noise, no kids running down the hall, no loud music from the room next...I was brought to the hotel by the shuttle and the driver Ray, I believe was his name, was nice. He accommodated my needs and made sure I had a Cart for the luggage. While checking in I had the pleasure of speaking with Kris. He made me feel as if I was a welcomed guest and his job was to make sure I had what was needed for a comfortable stay. It was nice to talk to a person with not only a great smile, but a sense of humor as my experience with others in Texas....everyone had a ugly face. We laughed a bit and I went to my room which was OK. It does need a face lift on the inside, which I understand is in progress, because the rooms a little bit dark. New AC units and drapery is needed. What I appreciated was the clean linen. After staying at other hotels and having to personally change stained or outright dirty linen at well-known hotels is was great for me. The breakfast is in a comfortable place, sausages, eggs, oatmeal, coffee, cold drinks, biscuits and gravy, and grits. It would be nice to have turkey sausage. The hot station had a guy who made omelets to order. He also had a great personality and tended to the guest. There was no loud noise, no kids running down the hall, no loud music from the room next door. Perfect for me. Indoor pool and play area for the kids, the workout area is under a face lift and I will return. Thank you Magnuson Grand for such great customer service and I look forward to my return when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r538595277-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>538595277</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Walked Out</t>
+  </si>
+  <si>
+    <t>The appearance is excellent, but look out after you walk thru the front doors.  The lobby does not have A/C, the rooms have to be worse, along with the talk downstairs we went to a REAL motel.  To check in, one clerk worked his butt off with 4 in line, the other messed around and she kept going to the back room, seemingly to not help her co-worker give excuses to the reserved check ins.WITH reservations!! We were told there were no rooms but sit and wait.   Quite a few others were doing the same and I asked one, he said he had been waiting 5 hours for a room and to be called, and he had reservations too.  This was on Sunday, 11-5-17. In 50 years I have never seen this nonsense with any motel.There are many motels with a mile, GET one.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>The appearance is excellent, but look out after you walk thru the front doors.  The lobby does not have A/C, the rooms have to be worse, along with the talk downstairs we went to a REAL motel.  To check in, one clerk worked his butt off with 4 in line, the other messed around and she kept going to the back room, seemingly to not help her co-worker give excuses to the reserved check ins.WITH reservations!! We were told there were no rooms but sit and wait.   Quite a few others were doing the same and I asked one, he said he had been waiting 5 hours for a room and to be called, and he had reservations too.  This was on Sunday, 11-5-17. In 50 years I have never seen this nonsense with any motel.There are many motels with a mile, GET one.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r525596455-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
-    <t>55736</t>
-  </si>
-  <si>
-    <t>107164</t>
-  </si>
-  <si>
     <t>525596455</t>
   </si>
   <si>
@@ -177,12 +294,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r524999752-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -201,9 +312,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>saxyskip2003</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r524424692-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -219,10 +327,40 @@
     <t>Great Experience here at the hotel older property but overall staff exceptional food in restaurant was great no complaints Hot Food great ammenities and overall staff appearance were all high priorities...</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>jaydee501</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r515922783-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>515922783</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>So / so - not awful but not that great.</t>
+  </si>
+  <si>
+    <t>So / so - not awful but not that great type of place.  The location was handy.  The front desk staff was super nice. The hotel itself is a bit dated. There is, I believe, just the one elevator. Odd as it sounds, the place is a little confusing inside to navigate to find the exits and the elevator.  The bathroom was a little less than desirable in that the shower/tub surround was unsightly.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r509384527-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>509384527</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Bad all the way</t>
+  </si>
+  <si>
+    <t>When we checked in the lobby was nice and clean however it ended there I had 2 adjoining rooms the kids was ok mine reeked of stale air and smoke despite being non smoking. There was caked dirt and lint on the ceiling from the air conditioner.The toilet didn't work.The next morning I had a sore throat from inhaling the stale air.The bed sheets had stains from the previous person. The carpet had food and dirt on the floor we had to keep our shoes on. The room was very dusty like it hadn't been cleaned in awhile the toilet was also dirty we had to use one toilet for both rooms, and to top it off the air in the hallway was burning hot as well as in the elevator that took a long time to come because there's only one .a lady on the elevator was sweating in her wedding dress going down to her wedding because it was so hot. I would not under any circumstances suggest this hotel, not even for my worse enemy ..MoreShow less</t>
+  </si>
+  <si>
+    <t>When we checked in the lobby was nice and clean however it ended there I had 2 adjoining rooms the kids was ok mine reeked of stale air and smoke despite being non smoking. There was caked dirt and lint on the ceiling from the air conditioner.The toilet didn't work.The next morning I had a sore throat from inhaling the stale air.The bed sheets had stains from the previous person. The carpet had food and dirt on the floor we had to keep our shoes on. The room was very dusty like it hadn't been cleaned in awhile the toilet was also dirty we had to use one toilet for both rooms, and to top it off the air in the hallway was burning hot as well as in the elevator that took a long time to come because there's only one .a lady on the elevator was sweating in her wedding dress going down to her wedding because it was so hot. I would not under any circumstances suggest this hotel, not even for my worse enemy ..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r508550924-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -240,15 +378,9 @@
     <t>We arrived and the lobby was HOT no A/C working. Upon checking in, no one told me that the A/C in the rooms didn't work until we got there. We enter the rooms and there were stains on the carpet, walls, and covers. The table in the furniture in the rooms were unstable. The A/C in ever odd room did not work. There were little to no staff working to check us in. The elevator work so slow to take is to the room that we decided it would be faster to walk the stairs instead, not this is with luggage. The only good thing about this place is they gave us little to no problem letting us check out so we could find a better hotel. Oh P.S dont book if you're bringing a church. There's a club in the lobby, you can hear the music in your room all night. The hotel has great potential but a lot needs to change MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>We arrived and the lobby was HOT no A/C working. Upon checking in, no one told me that the A/C in the rooms didn't work until we got there. We enter the rooms and there were stains on the carpet, walls, and covers. The table in the furniture in the rooms were unstable. The A/C in ever odd room did not work. There were little to no staff working to check us in. The elevator work so slow to take is to the room that we decided it would be faster to walk the stairs instead, not this is with luggage. The only good thing about this place is they gave us little to no problem letting us check out so we could find a better hotel. Oh P.S dont book if you're bringing a church. There's a club in the lobby, you can hear the music in your room all night. The hotel has great potential but a lot needs to change More</t>
   </si>
   <si>
-    <t>Tina D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r507473831-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -267,9 +399,6 @@
     <t>THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I...THIS HOTEL IS TERRIBLE, take heed and DO NOT STAY HERE!!!  This hotel was booked for a Church group well in advance for July 28th – July 30th with a group rate which honestly speaking was not a group rate with a total of $192.10 especially with this hotel.  You would think that this hotel would be ready to assist the group traveling, only when we arrived by bus they only had one gentleman working the front counter.  When we walked into the lobby of the hotel it was extremely hot and I asked the guy at the counter if the air was working (he replied yes mam it is) I was the 5th person in line to check in and it took exactly an hour to get checked in and there were more standing in line sweating from the heat (of course other hotel employees would walk to the front to see the line but no one helped out) it took another 30 minutes before they put someone else at the counter to help with check in.  After getting checked in you have to walk almost half a mile to get to the elevator (yes only one elevator) that moves so slow we timed it.  It took the elevator 8 minutes to get to the main floor (hotel has 4 floors) and it was not even busy because everyone was still standing in line to get checked in.  I get to the room and soon as I walked in the heat hit me in my face, called down to the front desk and was informed that they would send someone up to check it.  We waited for 25 minutes and still no one had showed up, so I hiked back to the elevator (where we had to wait again) go back to the front and he gives me another room, hike another half mile to the slow elevator and get to the other room and it wreaked of smoked really bad and guess what there was no air in this room as well!!!!!  I was traveling with a 5 &amp; 7 year old which both have asthma and eczema so this was definitely a problem, so I go back to the counter and at this point I am HOT, MISERABLE, TIRED OF WALKING FROM COUNTER TO ROOM, ELEVATOR TAKING FOREVER, I ask to speak with manager and the front desk state they are working on the air to give it 30 minutes (are you serious it took me 1 HOUR to get checked in) as I am speaking with the clerk my Uncle comes down and states that his room wasn’t clean and the air wasn’t working.  There was an old slice of pizza that appeared to be some days old along with some dried up chocolate candy and a soda can in his room.  He assured they were going to take care of it, after an hour went by and still no air or signs of mechanics in the area then me and my family went across the street got a better rate (and it wasn’t a group rate) a clean hotel, amazing hot breakfast and superb Customer Service.  Never ever again will I stay at any of these chains with the word Magnuson, this is considered the BATES MOTEL in my opinion.  Do yourself a favor and don’t step foot into this location.  They also have a club connected to the hotel, so if this is the case why not let the church group know that and don’t book a room over the club, but that wasn’t the case for some of the other church members getting awakened from loud music.  While standing in line to check in I dropped my cell phone and it broke and if it wasn’t for that I would have pictures to show.  More</t>
   </si>
   <si>
-    <t>dhdrholmes94</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r499292066-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -288,7 +417,52 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>wrp61</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r496363496-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>496363496</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>In town for a family gathering and it was a disaster.  Our room was stifling hot.  The thermostat read 80 degrees and it only got worse.  Another family member's room smelled like someone had smoked a truck load of marijuana.  When the front desk was informed, they were given another room, but the door would not open so my brother was informed that there were no other rooms available.  We booked three rooms and after that fiasco, we requested a refund, which was happily given to all of us and we left for a cleaner, cooler hotel about 20 minutes away.  This could be a wonderful hotel if the owners would simply invest some money into it.  The sagging mattresses and the ONE elevator were unacceptable.  I had three other cousins who left the same night we did for better hotel conditions.  I was truly disappointed, because the hotel does have potential.  I understand that it is an older hotel, but guest need to feel comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>In town for a family gathering and it was a disaster.  Our room was stifling hot.  The thermostat read 80 degrees and it only got worse.  Another family member's room smelled like someone had smoked a truck load of marijuana.  When the front desk was informed, they were given another room, but the door would not open so my brother was informed that there were no other rooms available.  We booked three rooms and after that fiasco, we requested a refund, which was happily given to all of us and we left for a cleaner, cooler hotel about 20 minutes away.  This could be a wonderful hotel if the owners would simply invest some money into it.  The sagging mattresses and the ONE elevator were unacceptable.  I had three other cousins who left the same night we did for better hotel conditions.  I was truly disappointed, because the hotel does have potential.  I understand that it is an older hotel, but guest need to feel comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r487162839-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>487162839</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Putting on a Class Act</t>
+  </si>
+  <si>
+    <t>All of the bad reviews, I've read about this place are total lies. Place is a very well maintained older hotel to have been built way back then with way ahead of its time architecture. Rooms are very clean and maid service is daily and thorough. AC works quiet well and continental breakfast turns out the best I've ever had. Place is run by a very well mannered bunch of black folks. The atmosphere is old fashioned deeply Southern/ hybrid Texas sort of a thing I prefer over any other culture this country has to offer. My only whine is constant entry door slamming of which I've been quiet guilty of myself..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>jerry s, Manager at Magnuson Grand DeSoto, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>All of the bad reviews, I've read about this place are total lies. Place is a very well maintained older hotel to have been built way back then with way ahead of its time architecture. Rooms are very clean and maid service is daily and thorough. AC works quiet well and continental breakfast turns out the best I've ever had. Place is run by a very well mannered bunch of black folks. The atmosphere is old fashioned deeply Southern/ hybrid Texas sort of a thing I prefer over any other culture this country has to offer. My only whine is constant entry door slamming of which I've been quiet guilty of myself..More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r487147756-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -297,30 +471,18 @@
     <t>487147756</t>
   </si>
   <si>
-    <t>05/23/2017</t>
-  </si>
-  <si>
     <t>willam's review</t>
   </si>
   <si>
     <t>Very clean hotel with helpful staff, nice indoor pool, excellent restaurant, with good prices, near waffle house and cracker barrel. Would stay here again. Was a business trip but nice location near dallasMoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>jerry s, Director of Sales at Magnuson Grand DeSoto, responded to this reviewResponded June 6, 2017</t>
   </si>
   <si>
-    <t>Responded June 6, 2017</t>
-  </si>
-  <si>
     <t>Very clean hotel with helpful staff, nice indoor pool, excellent restaurant, with good prices, near waffle house and cracker barrel. Would stay here again. Was a business trip but nice location near dallasMore</t>
   </si>
   <si>
-    <t>jayquan r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r477075942-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -339,9 +501,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>toxadams</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r470409268-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -357,7 +516,46 @@
     <t>Many children about the swimming pool area, noise in the hallways, children were going up and down on the elevator. Bathrooms very untidy.  Would not recommend. Customer service  and breakfast were great.</t>
   </si>
   <si>
-    <t>Dreddel110</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r469272545-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>469272545</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>food was pretty good</t>
+  </si>
+  <si>
+    <t>club was good thu.16th drank some bud lights got a little buzz going :-) !! power went out sometime during the night got up to p and was no lights, got back up at 6 and took a shower in the dark!  told front desk at ck out and they said they had a fuse problemMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>club was good thu.16th drank some bud lights got a little buzz going :-) !! power went out sometime during the night got up to p and was no lights, got back up at 6 and took a shower in the dark!  told front desk at ck out and they said they had a fuse problemMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r445749555-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>445749555</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel experience</t>
+  </si>
+  <si>
+    <t>The customer service at this hotel is the worst. When I Called to book a suite, I had  spoken to 3 different members and neither wanted to book my reservation, which they never did. They continued to give me the run around saying I had to speak with a Manager just to book a suite. One of them actually felt the need to speak very sarcastic and proceed to hang up in my face. When I ask to speak to the Manager he never came to the phone. Now, keep in mind I had just assist my sister, a week ago, with booking a suite for my niece birthday. I was very aware of the procedures. Finally, I just decided to call the following day to book a complaint with Manager of the hotel, and of course, no response. She never was in office when I call and never returned call after leaving message. I will NEVER return again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The customer service at this hotel is the worst. When I Called to book a suite, I had  spoken to 3 different members and neither wanted to book my reservation, which they never did. They continued to give me the run around saying I had to speak with a Manager just to book a suite. One of them actually felt the need to speak very sarcastic and proceed to hang up in my face. When I ask to speak to the Manager he never came to the phone. Now, keep in mind I had just assist my sister, a week ago, with booking a suite for my niece birthday. I was very aware of the procedures. Finally, I just decided to call the following day to book a complaint with Manager of the hotel, and of course, no response. She never was in office when I call and never returned call after leaving message. I will NEVER return again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r437222019-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -383,9 +581,6 @@
 This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with...When you first walk in to this place you are greeted by a very nice looking lobby all marble tile, high polish on the wood surfaces, and generally looks like a very nice place.This is a very deceptive preview of the place. Once you get beyond the lobby you begin to see the true face of this hotel. Many of the door mats/rugs are threadbare even to the point of actually being bare to the rubber in places, Also some of the mats are actually cut almost to the point of becoming 2 rugs. Nearly every wall corner has cracked and peeling paint and even looks like they have been painted over many times and not once has the paint been sanded down to return the surface to a proper surface to receive new paint, In many places the walls show signs of never being cleaned. Many of the service doors show signs of scratches and cracked/peeling paint. The air in the room I stayed in very barely worked. When on and temperature turned down to 50 the room barely reached 72. There were dead bugs (not sure if they were roaches or crickets) on the floor by the wall. The room had a smell like fresh paint in it but just like elsewhere the paint was cracked and peeling. The room also was dusty like all that was done to clean it was make the beds (not with clean linens just the old ones reused) and replace the towels. The sign for the club said closing time was midnight but they were closed before 11pm. Unlike most all mid level hotel/motels that offer a free breakfast you have to pay for breakfast and it costs $5.95I definitely would not ever stay here again.More</t>
   </si>
   <si>
-    <t>dlady360</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r436152873-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -407,9 +602,6 @@
     <t>This was the 1st Choice Privilege hotel that I experienced the worst possible stay. This hotel is unsuitable to be staying in. The hotel staff checked me in by leaning over the keyboard, unfriendly. Only one slow elevator for 4 floors. When you get off the elevator smells like mildew and you almost can fall through the floor. Go into the room, old furniture, tables half cleaned, TV remote doesn't work, and sink in restroom drains really slow. Water sits for about 20 minutes. I will never stay at this hotel again. Oh and not to mention NO ICE MACHINES WORK. Housekeeping comes in and smears mirror with a rag. Just Horrible.More</t>
   </si>
   <si>
-    <t>Jean L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r430448297-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -434,7 +626,37 @@
     <t>Before I begin, I want to state that I booked this direct through the Choice Hotel website, and requested one of their "nicer" rooms....The volume on the TV didn't work, so I called the front desk.  They advised they would send maintenance.  About an hour later the front desk called back to confirm the specific problem and advised they would bring us a new remote for the TV.  We never heard from them again!!!  Really?!?  The A/C was SOOOOOOO loud that it literally sounded like an airplane taking off!  We decided to use the frig, had to plug it in, only to find out that it was almost as loud as the A/C!!!  To top this off, we were on the side by the freeway and the soundproofing was so bad you could hear every vehicle go by!!  The elevator was so slow, it was hard to tell if it was working.  There was a sign on the ice machine on our third floor that the ice machines on the 2nd, 3rd, and 4th floor were out of order, with instructions to go to the first floor for ice!  The halls and public areas (except for the front lobby!) are in desperate need of basic repairs, seriously cleaning, and painting.  This is a horrible example of a "Choice" hotel, and I strongly suggest they remove their name from this joke of a hotel.More</t>
   </si>
   <si>
-    <t>Trish H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r413272471-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>413272471</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>A NIGHTMARE!</t>
+  </si>
+  <si>
+    <t>This was absolutely my worst stay ever!  The hotel is ruined, not well maintained and infested with roaches.  I have main an official complaint with Choice Hotels as well.  This has to be fixed.  What the heck are they running there?  NO NO NO -- DO NOT STAY THERE.  Go to Holiday Inn Express instead if you stay in the area.  I am very disappointed-- and this hotel has much potential-- they need new management, staff and accountability.  What a shame!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r405702387-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>405702387</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>This hotel needs to be updated and cleaned. And, please stop using Fabuloso to clean. The elevator is too slow. The hotel was HOT, HOT, HOT in August! The staff is friendly but the hotel is just gross! The bed was fine but that was the only thing that was fine. It is in Texas and it is summer ...did I mention it was HOT? It is the absolute worst hotel I have ever stayed in, in my life. My stay was in August 2016. Do NOT pay to stay here - you will regret it.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r400110061-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -455,9 +677,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>judith P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r398900338-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -476,9 +695,6 @@
     <t>This is the worst hotel we have ever been to in my life. Holes in the wall by the box a.c. That is old and load. The room was not clean. The hotel was not clean. Old TV and you can not hook up my Xbox. One up to the tv. Because they broke the TV so you can't do this and the manager is not smart he said that the Xbox would break the TV ... What... I don't think so. The Internet is so bad that you can't even play on you phone. And the place is not safe for kids .. and when we stayed for one night my son was deathly sick because of this place stay away ..More</t>
   </si>
   <si>
-    <t>RLeave</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r394306187-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -497,7 +713,40 @@
     <t>The bed comfortable, and the hotel quiet, but the sink leaks, the toilet leaks, the shower leaks, the TV volume did not work, the internet was good, until it died, tried to call the front desk, the phone did not work, the carpets in the hallway were beat and dirty, the parking lot was dirty, the doors to the outside did not work with the key card, but one was held open by a stick at 5AM.  An older hotel in need of a refresh, but considering the price (under $100) was OK.  The breakfast was very good, a buffet offered in the dining room, definitely a step up from other Choice Hotels.More</t>
   </si>
   <si>
-    <t>adtims</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r393279920-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>393279920</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Well when I woke up to go to the restroom at 2:30 am hotel room door was open only thing keeping some one from entering was chain lock.  I called from the desk they seemed very in concerned and did not even offer to have security come up.  Checked out the next day and and front desk associated said, " sometimes guest get drunk and go to the wrong room". WITW  they still should not be able to open my door.  I truly believe this has happen before since she did not even seemed shocked about the incident.  Read several reviews about this place afterwards.  DO your homework before you book. STAY AWAY UNSAFE place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well when I woke up to go to the restroom at 2:30 am hotel room door was open only thing keeping some one from entering was chain lock.  I called from the desk they seemed very in concerned and did not even offer to have security come up.  Checked out the next day and and front desk associated said, " sometimes guest get drunk and go to the wrong room". WITW  they still should not be able to open my door.  I truly believe this has happen before since she did not even seemed shocked about the incident.  Read several reviews about this place afterwards.  DO your homework before you book. STAY AWAY UNSAFE place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r381210917-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>381210917</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Do not pay to stay</t>
+  </si>
+  <si>
+    <t>I was told this hotel was a 4 star hotel ( NOT!!!!). The hotel is short on housekeeping. Therefore at 4:00 p.m. check in, the rooms are still not clean. The hotel has hallways smells like Marijuana. The walls of the hotels are dirty and stained. Ripped rugs are all through the hotel. The hotel has contracted to house truck drivers. Therefore random men just wonder the hotel including hanging out oustide the hotel. The hotel has ghetto club on Saturday. Again, Drunk Adults roaming the hotel. Don't take your family there!! The hotel price list is $119 per night really for nasty, dirty unsafe environment for anyone family.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r381157798-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -506,9 +755,6 @@
     <t>381157798</t>
   </si>
   <si>
-    <t>06/09/2016</t>
-  </si>
-  <si>
     <t>not worth the trip</t>
   </si>
   <si>
@@ -521,9 +767,6 @@
     <t>I booked my reservation in February 2016 for a family vacation in May 2016.I called hotel to confirm my reservation, and the price. I was advised that I was booked for one night, when I reserved for three nights. The hotel stated that when I arrive that it would be corrected. Not, when I arrived, I was still booked for one night and was told I had to change rooms the next morning. I booked a 2 room suite, which was not available, I was told that they would "comp" me for the 2 nights I had to change rooms. this was not note on my bill. the suite I received was  a one bedroom with a pull out sofa. and the bedroom was upstairs. my spouse is handicap and could not climb the stairs.  I was told that they would give me a discount for the inconvenience. when I went to change my room the manager stated he never told me that he would "comp" the next two nights, he called me a liar. the room I was moved to, the air conditioner didn't work, the refrigerator, and microwave didn't work. the desk clerk assured me that he would not charge me for the two nights, however, the discount for the inconvenience was not given to me. worst stay ever.More</t>
   </si>
   <si>
-    <t>highenuff77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r380949199-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -542,9 +785,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Apostillados</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r380508719-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -566,7 +806,43 @@
     <t>MCM Grande Hotel use to be... now changed name, ownres and management; which makes it the worst place to stay in DeSoto / Lancaster / South Dallas area,No hot water, dust allover the room, the halls, and the hallway door entrance was out of service; so I had to go all around to get to the car.I stayed several times before, but this time I invited my son to stay here; for which I am very very dissapointed and very angry.No breakfast early morning as it should, toaster was not working properly - lightly toasted, or black burned bagels or waffles.... hard like an ice cube individual butter, just orange marmalades, and forever to get a simple two egg, ham and cheese omelette.More</t>
   </si>
   <si>
-    <t>Fayettenam</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r347453608-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>347453608</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Valentines day ruined</t>
+  </si>
+  <si>
+    <t>First off let me say how upset and dissapointed i was by this visit. I am currently pregnant, and so we dont get to do a whole lot of vacationing. For valentines day we booked a room on the 13th, and called ahead of time to make sure the heated pool and hot tub were open and running. When we arrived we found out not only was the pool not working, but the hot tub was full of green cloudy water, and there were about 15 children unsupervised in the hot tub. In our room, the heater was not working, the shower head was simply gone, and our coffee maker was full of old MOLDING coffee grounds (plus the pot was missing) When we called down stairs we were told that the heater was removed from the pool to help them avoid cleaning it as often???? (Why didnt you tell us that when we called yesterday???) So all in all, paid 120$ for the same accomidations as a 40$/ night motelMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>First off let me say how upset and dissapointed i was by this visit. I am currently pregnant, and so we dont get to do a whole lot of vacationing. For valentines day we booked a room on the 13th, and called ahead of time to make sure the heated pool and hot tub were open and running. When we arrived we found out not only was the pool not working, but the hot tub was full of green cloudy water, and there were about 15 children unsupervised in the hot tub. In our room, the heater was not working, the shower head was simply gone, and our coffee maker was full of old MOLDING coffee grounds (plus the pot was missing) When we called down stairs we were told that the heater was removed from the pool to help them avoid cleaning it as often???? (Why didnt you tell us that when we called yesterday???) So all in all, paid 120$ for the same accomidations as a 40$/ night motelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r345912308-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>345912308</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Birthday party</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the staff was great.  The only drawback is there is only one elevator.  The decor was up to date. The location was great for where I needed to be.  If you want to party there is a club in the hotel.  We just walked across the parking lot and was able to get breakfast or you can get breakfast in the hotel.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r337086546-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -587,9 +863,6 @@
     <t>This hotel, probably in its prime was very nice!  That could have been more than 30 years ago, however.  Huge lobby, in which they have made some upgrades.  They do offer complimentary breakfast, with a chef for omelets, and decent selection of other things.  The fitness center has three pieces of equipment, two of which don't work, the TV also doesn't work in there either.  The hotel does offer free Wifi, although, there really wasn't a spot in the room, where you could actually get it.  The hallway, had a strong signal, however, you don't really want to hang out in the hallway.  The room had an AC/Heater window unit, that sounded a bit like a jet taking off, however, it did it's job, if you can handle the noise.More</t>
   </si>
   <si>
-    <t>Heather V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r327618403-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -608,9 +881,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>bonikashears</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r326867537-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -635,7 +905,40 @@
     <t>We are on the road all the time. When I sat to write my review I was flabbergasted at the other low reviews. I LOVE this hotel. Breakfast which is free has a chef making fresh omelets. Our suite is the nicest we have ever stayed in. Used it for a training class. Bedroom upstairs, fireplace, balcony which over looks the atrium. The balcony alone is bigger than most hotel rooms. Lovely hotel. Live piano music. Friendly helpful staff. Unless everything has been revamped, i am confused by the previously low reviews. I was totally delighted and have plans to stay here again. Thinking about bringing a convention here because there are many large meeting rooms. We did eat lunch here. Service was a little slow but the food was tasty and generous. It is such a beautiful hotel inside I wouldn't have noticed the wait except for reading the others reviews. Price of the room was a real value for what we got. Only downside as far as I could see is that there is no airport shuttle. Photo is the downstairs of our suite.More</t>
   </si>
   <si>
-    <t>Kenny_login2</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r315661287-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>315661287</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Everything was made right</t>
+  </si>
+  <si>
+    <t>The young lady whom checked me in was a sweetheart and asked appropriate questions in regards to my checking process. Smiled the entire time. She was awesome!! The cleaning crew and the maids were extremely helpful and pleasant to deal with. Everyone spoke before I could speak, well within the 10 foot rule, that I taught my staff back in the day (retail).During breakfast, the short order cook was really nice and professional. The young ladies cleaning the tables and/or waitresses were very helpful and really courteous young women.Honestly, I dont know any of the employees, but I think they all need a raise!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The young lady whom checked me in was a sweetheart and asked appropriate questions in regards to my checking process. Smiled the entire time. She was awesome!! The cleaning crew and the maids were extremely helpful and pleasant to deal with. Everyone spoke before I could speak, well within the 10 foot rule, that I taught my staff back in the day (retail).During breakfast, the short order cook was really nice and professional. The young ladies cleaning the tables and/or waitresses were very helpful and really courteous young women.Honestly, I dont know any of the employees, but I think they all need a raise!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r308666909-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>308666909</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>This was one of the worst hotels I've ever stayed in. The room was either hot or cold, and the central air conditioning was unforgivably noisy. The cable tv was 480i at best (very 1990), but many channels were so dark you couldn't see the picture. Towels and coffee were never replaced in the room. Called down for towels, but none ever arrived. Walls are thin, so you hear everything going on in the next room or in the hallway. The blankets on my bed had large holes in them. At $114 per night, this was not what I expected.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r306611108-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -662,9 +965,6 @@
 •	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not...You can tell that 20 years ago this was a pretty decent hotel (albeit short on elevators). Since going under new ownership 4 years ago, the hotel has fallen apart, and ownership could care less (according to several employees I spoke with in the restaurant and at the front desk). They are only concerned with keeping the rooms full for truckers from the trucking companies they have contracts with, and of truckers don’t have the highest standards for living. To them, any roof with air conditioning that isn’t a truck or a trailer might as well be the Waldorf Astoria. For the rest of us though, here are a few bullet points illustrating the problems I had with the Clarion in Desoto Texas. Needless to say, Clarion’s corporate office should be ashamed to have this location on their roster, and they need to come in to do a complete overhaul of both the facilities and the staff (specifically, ownership).•	The air vent in my room was absolutely filthy. HERE’S A PHOTO: (http://i.imgur.com/WRcCFqd.jpg)•	On two days the room was not cleaned. I did not leave a “Do Not Disturb” sign on the front of the door.  Even in the worst hotel/motel, I’ve never had a room skipped for cleaning.•	ALL ice machines are broken. There are 4 ice machines in the building for guests. 3 days after I reported that none of them were working they had not been fixed. I reported this to the front desk every day during my stay, and every day the front desk said “this is the first we’ve heard about this.”  When I left the hotel they were still inoperable.  •	Hotel wifi is never the best, but the wifi at Clarion Desoto is unforgivably bad. It drops for 30 minutes to 1 hour at a time. Even with an antenna (to boost reception) the service dropped if I tried to load a page with video, or if I had webpages loading in multiple tabs. It was the slowest internet I’ve dealt with since 1996-98 in the 56k Dial-Up days.•	During two separate showers maintenance knocked on my door, and shouted through the door that they needed to come into my room because water was leaking to the floor below.  •	On 3 separate days my dirty towels were removed (as well as the unused towels), but no clean towels were left.  The 3rd time the hotel staff came to my door to deliver towels to fix the mistake, he was talking on his Android phone (on speaker, of course) to a friend from outside work. He gave me the towels and barely made eye contact, but simply put the towels in my hand and walked away. Neither he or the front desk apologized for the mistake.•	There are 4 floors in the hotel, but only 1 elevator. The stairs are on the 2 far ends of the hotel, so not convenient if you are staying in a room in the middle of the hotel, and completely dangerous if there is a fire in the hotel.  •	The tubs cannot be plugged if you would prefer to take a bath. I assume this is because the showers leak.  •	There are 4 Coca Cola machines in the hotel. The only working machine is on the 4th floor. It can take a card, but not cash. The 3 other machines decline your card and reject cash ($1 bills or Quarters).  •	Most (7 out of 8) of the light fixtures outside of the elevators are broken/cracked.  HERE’S A PHOTO (http://i.imgur.com/CsPzshh.jpg)•	2 of the 4 lamps in my room did not have working light bulbs. This was reported, but never fixed.  •	Coffee/Tea was never replaced in my room. I had to call down every evening to have someone bring it up (usually with the towels they forgot to replace)•	“Continental Breakfast” includes (every day): Scrambled Eggs, dry biscuits, very dry/tasteless sausage links, very dry/tasteless sliced potatoes, and generic jelly danishes. There is no fruit.•	The staff members at the front desk dress professionally, but the rest of the staff never clean their work clothes or tuck in their shirts. Many of the shirts have pink bleech spots on them.•	There is no freight elevator, so you spend as much time waiting on the 1 elevator because the staff is riding it as you do because other guests are riding it.  •	If the elevator is going up, and you need to go down, it will stop on your floor on the way up. Say you’re on the 2nd floor, needing to go to the first, but the elevator is on it’s way up to the 4th floor. You’ll have to ride all the way to the top then be taken down. I’ve never seen another elevator in any building that is so poorly programmed.•	There are no soap dishes built into the sink, and no external soap dishes, so you’ll either have soap residue all over your bathroom countertop, or a bar of soap covered in toothpaste.•	The towels are too small and feel like they are made of sandpaper. Coming from the hotel hospitality industry myself, I can tell you that these towels are manufactured for auto shops or cleaning purposes. They’re not designed to dry people getting out of showers/baths. •	At $94.00 per night, this is not a budget motel. You can stay at a Holiday Inn Express, Hampton Inn, or any other comparable hotel and have a much, much better experience than you will at the Clarion. If you want this experience, save yourself a few bucks and stay in a budget motel like Motel 8 or Quality Inn for $39-$60. There is nothing special about this location, so you won’t miss anything.•	The hotel is littered with truckers who will wake you up at all hours of the night either fighting with each other or stumbling after a night out drinking in some vacant parking lot.•	On Friday/Saturday nights the hotel lobby fills with smoke because the bar off the lobby becomes a sort of urban club. It does not attract the most savory characters.•	One 1 night I had a young woman and large man knock on my door asking for “Moose.” I told here I was not Moose and she asked “are you sure, because Moose called and told me to meet him in room ***.” This was my first experience with a hotel prostitute. It was nothing like Pretty Woman, let me tell you. She stood outside my door yelling at someone on the phone for 5 minutes about her frustration. •	Every time I tried to call the front desk from the room phone I got a busy signal. I usually tried 5-10 times just to see if I could get through. There is no queue for the phones. If you want to get the front desk, call from your cell phone. You’ll get right through. The front desk number is on the phone in the room. The “Room Service” button does not go anywhere. It is a non-functioning button. Shocker.More</t>
   </si>
   <si>
-    <t>Barry W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r304535417-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -686,9 +986,6 @@
     <t>Checked in at the Clarion Friday at 1:45 a (fried chicken and a burger).nd was told that check in was not until 3 and would have to wait (despite the entire place was empty) so, we waited at the restaurant and had lunch. Big Mistake. Service was terrible and s l o w. They had water or lemonade. No tea, no sodas. We waited, Waited. Waited. The Mgr. checked on us and asked the servers what was taking so long for our food. The waitress brought in food from Cracker Barrel to the kitchen. 2 minutes later our food came out. The Mgr. comped our food.Checked in at 3 and went to room. No wifi, no air conditioning, and the phone did not work. I went to the desk and was told maintenance would be right up.3 hours later - they move us to another room - "a room upgrade" - that was smaller and had rat holes chewed through the curtain that blocked a lovely view of the interstate. Carpets are dirty and bed comforter is stained.We're still here and can't wait to get home.More</t>
   </si>
   <si>
-    <t>Cmichaeld1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r301328521-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -704,7 +1001,40 @@
     <t>Well, we should learn from our mistakes. We stayed here in 2013 and everything was a mess with a remodel. I thought that it might be better the second time around. Wrong, there was no phone in the room, no wash cloths, no soap, shampoo and only one lamp had a bulb in it. Also, the outside secure door lock was busted. Oops. Never again.</t>
   </si>
   <si>
-    <t>TruckerLynn</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r294920539-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>294920539</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>The Worst EVeR</t>
+  </si>
+  <si>
+    <t>You pay money to sleep at hotel..... Why do mangers staff Not take control of place been awake since 2 something while hallways and doors slam an people beat on them to get in yelling and screaming and I see beer bottles and plastic cups trash in hallways.Called front desk phone off hook for hours called other number and they said call security. Hey it's your job to control people.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r280472276-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>280472276</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>RUN don't WALK to another hotel. Handicap reservations don't mean anything to them.</t>
+  </si>
+  <si>
+    <t>We had a reservation for June 06, 2015. Arrived at the hotel approximately 1:30 pm to check in.  We were told by the desk clerk they had 2 handicap rooms, but not ready, they were being cleaned. We were ask to go get some lunch. And room should be ready when I returned. We return a hour later and was told they had no handicap rooms available.  I told the young black man, that he told me my room would be ready for check in when we return.  Now he's tell me they have no handicap rooms available. But they would give us a standard room. I told him that was not acceptable, my husband is a amputee, and his other knee only has a 40 % bend.  He requires safety bars to be able to get in and out of tub. (I always carry a handicap shower chair with us so he can get in and out of the tub.) "This is a safety issue for him and a liability issue for the hotel."  I book this handicap room on line several days before with a military discount.  This handicap room was available on line. I ask to speak to a manager, after waiting about 10 minutes; the clerk and manager (Dee) came back. I was asked to give them a few more minutes and they were going to provide us with a  free room. They came back and...We had a reservation for June 06, 2015. Arrived at the hotel approximately 1:30 pm to check in.  We were told by the desk clerk they had 2 handicap rooms, but not ready, they were being cleaned. We were ask to go get some lunch. And room should be ready when I returned. We return a hour later and was told they had no handicap rooms available.  I told the young black man, that he told me my room would be ready for check in when we return.  Now he's tell me they have no handicap rooms available. But they would give us a standard room. I told him that was not acceptable, my husband is a amputee, and his other knee only has a 40 % bend.  He requires safety bars to be able to get in and out of tub. (I always carry a handicap shower chair with us so he can get in and out of the tub.) "This is a safety issue for him and a liability issue for the hotel."  I book this handicap room on line several days before with a military discount.  This handicap room was available on line. I ask to speak to a manager, after waiting about 10 minutes; the clerk and manager (Dee) came back. I was asked to give them a few more minutes and they were going to provide us with a  free room. They came back and said all the area hotels were booked. (Booked here because of location near my Grandson Little League Baseball Tournament) But they could book us a room about 15 minutes away. The name of the hotel was "Haven", looked it up on Travel advisor, had a 2 star rating, and the area was pretty ruff. I told her that was not acceptable. I would find a room, call her with the information where she could provide payment information for the room. Guess what when I called back they wouldn't pay for the room. And to top that off; they kept my 10,000 Choice Hotel points for the room I book. "I CALLED CHOICE HOTELS ( June 6,) AND EXPLAINED THE PROBLEM, Collette said she would contact them and get back with me. CALLED AGAIN THIS MORNING (June 15) spoke with VALARIE, SHE WAS WONDERFUL. I explained the problem, she looked back and the hotel had not return Choice's call. SHE SAID DON'T WORRY; CHOICE WILL TAKE CARE OF THE PROBLEM. THEY RETURN MY POINTS AND ALSO TOOK CARE OF THE COST OF THE ROOM. "" I HIGHLY RECOMMEND CHOICE HOTELS AND THERE CUSTOMER SUPPORT DEPARTMENT.""  I ALSO WANT TO GIVE A BIG SPECIAL THANK YOU TO VALARIE; the Choice Hotel support team is bless with a customer service agent who would listen and take care of the problem. My husband is totally disable US Veteran. He said to also give Valarie a thank you for her kindness and caring way she took care of the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We had a reservation for June 06, 2015. Arrived at the hotel approximately 1:30 pm to check in.  We were told by the desk clerk they had 2 handicap rooms, but not ready, they were being cleaned. We were ask to go get some lunch. And room should be ready when I returned. We return a hour later and was told they had no handicap rooms available.  I told the young black man, that he told me my room would be ready for check in when we return.  Now he's tell me they have no handicap rooms available. But they would give us a standard room. I told him that was not acceptable, my husband is a amputee, and his other knee only has a 40 % bend.  He requires safety bars to be able to get in and out of tub. (I always carry a handicap shower chair with us so he can get in and out of the tub.) "This is a safety issue for him and a liability issue for the hotel."  I book this handicap room on line several days before with a military discount.  This handicap room was available on line. I ask to speak to a manager, after waiting about 10 minutes; the clerk and manager (Dee) came back. I was asked to give them a few more minutes and they were going to provide us with a  free room. They came back and...We had a reservation for June 06, 2015. Arrived at the hotel approximately 1:30 pm to check in.  We were told by the desk clerk they had 2 handicap rooms, but not ready, they were being cleaned. We were ask to go get some lunch. And room should be ready when I returned. We return a hour later and was told they had no handicap rooms available.  I told the young black man, that he told me my room would be ready for check in when we return.  Now he's tell me they have no handicap rooms available. But they would give us a standard room. I told him that was not acceptable, my husband is a amputee, and his other knee only has a 40 % bend.  He requires safety bars to be able to get in and out of tub. (I always carry a handicap shower chair with us so he can get in and out of the tub.) "This is a safety issue for him and a liability issue for the hotel."  I book this handicap room on line several days before with a military discount.  This handicap room was available on line. I ask to speak to a manager, after waiting about 10 minutes; the clerk and manager (Dee) came back. I was asked to give them a few more minutes and they were going to provide us with a  free room. They came back and said all the area hotels were booked. (Booked here because of location near my Grandson Little League Baseball Tournament) But they could book us a room about 15 minutes away. The name of the hotel was "Haven", looked it up on Travel advisor, had a 2 star rating, and the area was pretty ruff. I told her that was not acceptable. I would find a room, call her with the information where she could provide payment information for the room. Guess what when I called back they wouldn't pay for the room. And to top that off; they kept my 10,000 Choice Hotel points for the room I book. "I CALLED CHOICE HOTELS ( June 6,) AND EXPLAINED THE PROBLEM, Collette said she would contact them and get back with me. CALLED AGAIN THIS MORNING (June 15) spoke with VALARIE, SHE WAS WONDERFUL. I explained the problem, she looked back and the hotel had not return Choice's call. SHE SAID DON'T WORRY; CHOICE WILL TAKE CARE OF THE PROBLEM. THEY RETURN MY POINTS AND ALSO TOOK CARE OF THE COST OF THE ROOM. "" I HIGHLY RECOMMEND CHOICE HOTELS AND THERE CUSTOMER SUPPORT DEPARTMENT.""  I ALSO WANT TO GIVE A BIG SPECIAL THANK YOU TO VALARIE; the Choice Hotel support team is bless with a customer service agent who would listen and take care of the problem. My husband is totally disable US Veteran. He said to also give Valarie a thank you for her kindness and caring way she took care of the problem.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r266909437-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -725,9 +1055,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>trvlr53180</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r264727522-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -743,9 +1070,6 @@
     <t>Very nice hotel nice clean rooms knowledgeable staff excellent breakfast buffet with fresh made to omelets this is my favorite hotel to stay in when I am in the Dallas area it is conveniently located near stores and a short drive from downtown Dallas it is a very nice and quiet place to stay</t>
   </si>
   <si>
-    <t>WinthropJQuiggy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r264407584-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -764,7 +1088,48 @@
     <t>I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have...I rented a room here because I had a good experience last year at a Clarion in Tulsa.  This one had decent rooms, and a bit larger than ones I had previously experienced.  The downsides, though.  From the lobby you have to walk across the entire building to get to the elevator.  And the elevator sounded very rickety.  I'm not sure if this building was refurbished by Clarion (Google maps street view from a few years ago shows a different hotel on this property), but I think it was.  The elevator sounded rickety, and the little corner where the elevator was looked years older than the rest of the hotel.  Also I took advantage of the shuttle which took me to the nearest bus stop so I could go into Dallas.  No problem with the outgoing trip.  But when I got back, I called, and 30 minutes later called again.  Long shot, it took them an hour and 30 minutes before I finally got the shuttle and the driver said the van was out of service for a while.  They could have told me that in the first place and I could have asked them for a local cab number.  The last thing, not something they could have predicted of course, but the wi-fi was down the entire weekend.  I had access to a business center, but it had specific hours and I'm an early morning person.  I would have liked to got in it before 6am (the time it was opened.)  All in all, it's was an OK hotel, just not up to what I expected from a Clarion.More</t>
   </si>
   <si>
-    <t>Craig Y</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r257295474-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>257295474</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>"YES I CAN DO THAT, BUT I CHOSE NOT TOO" - JERRY (SALES MANAGER/MOD)</t>
+  </si>
+  <si>
+    <t>These were the words directly from Jerry, Sales Manager / MOD on site for the hotel on February 28, 2015. I have worked in the hospitality industry for over 11 years, PBX Operator, Front Desk, Sales Administrator - at this hotel when it was a Holiday Inn (owned by -Dimension Development), Group Sales Manager, etc.  With all that being said, I am VERY well aware of the legal policies and procedures that can be done to accommodate guests. So when my family decided to have my father's retirement party at this location the guest rooms were the last thing that i would expect to have an issue with.  However,  on February 28, 2015 me and my entire family were inconvenienced when we arrived at the hotel and Jerry (whom we had met and spoke with SEVERAL TIMES)  looked me in my face and told me that he would not be able to give us the rooms that we were CONTRACTED to have. Not only that.... after giving several suggestions on ways to rectify the situation, and confirming with him that this COULD be done.... Jerry s exact words to me....in front of my family as well,  were "Yes i could do that....but I choose not to".MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>These were the words directly from Jerry, Sales Manager / MOD on site for the hotel on February 28, 2015. I have worked in the hospitality industry for over 11 years, PBX Operator, Front Desk, Sales Administrator - at this hotel when it was a Holiday Inn (owned by -Dimension Development), Group Sales Manager, etc.  With all that being said, I am VERY well aware of the legal policies and procedures that can be done to accommodate guests. So when my family decided to have my father's retirement party at this location the guest rooms were the last thing that i would expect to have an issue with.  However,  on February 28, 2015 me and my entire family were inconvenienced when we arrived at the hotel and Jerry (whom we had met and spoke with SEVERAL TIMES)  looked me in my face and told me that he would not be able to give us the rooms that we were CONTRACTED to have. Not only that.... after giving several suggestions on ways to rectify the situation, and confirming with him that this COULD be done.... Jerry s exact words to me....in front of my family as well,  were "Yes i could do that....but I choose not to".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r248666904-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>248666904</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Our Home Away From Home</t>
+  </si>
+  <si>
+    <t>My wife  and I have had the pleasure of staying here at least once a year for the last 5 years. Unless somebody else was picking up the tab, I wouldn't stay anywhere else. I'd encourage them to let us stay here. We found the place by accident back in '09 and have had nothing but comfortable experience each time. The staff is so genuinely friendly that we have become personal friends with some of the ones that have been there a while. Oscar, that works the front desk is a personal friend of ours now and we always enjoy going down town with the kiddos and watching his band(The Freeloaders) play at some hot spots. If you enjoy live music such as jazz and some cover songs, treat yourself to an awesome experience. If music is not your thing, just ask for suggestions. He has recommended tons of things for us to do, see, and eat and all of them have been spot on. 
+Back to the hotel. I have stayed at Motel 6's that have cost as much as this place and stayed in high rise hotels downtown in major cities that haven't taken as good care of us. This place is as good as it gets bang for buck. If this place isn't good enough for you, you're too needy. When we travel, everything is easy going and there is certainly not an itinerary. We are about...My wife  and I have had the pleasure of staying here at least once a year for the last 5 years. Unless somebody else was picking up the tab, I wouldn't stay anywhere else. I'd encourage them to let us stay here. We found the place by accident back in '09 and have had nothing but comfortable experience each time. The staff is so genuinely friendly that we have become personal friends with some of the ones that have been there a while. Oscar, that works the front desk is a personal friend of ours now and we always enjoy going down town with the kiddos and watching his band(The Freeloaders) play at some hot spots. If you enjoy live music such as jazz and some cover songs, treat yourself to an awesome experience. If music is not your thing, just ask for suggestions. He has recommended tons of things for us to do, see, and eat and all of them have been spot on. Back to the hotel. I have stayed at Motel 6's that have cost as much as this place and stayed in high rise hotels downtown in major cities that haven't taken as good care of us. This place is as good as it gets bang for buck. If this place isn't good enough for you, you're too needy. When we travel, everything is easy going and there is certainly not an itinerary. We are about as relaxed and easy going as I imagine it gets and this place is perfect. It's a short drive to everything, easy to get in and out of, easy to find, and close to any store you might need to make a quick run to. Can't elaborate enough about how friendly the staff is. They always treat us as if they haven't had a customer walk in the door in years. Sometimes we get a wild hair to go on random vacations and one of our destinations is Dallas just because of this hotel. It's a six hour drive from Corpus Christi but it's worth it to us if we plan to hang around for 4-5 days. Every time we've stayed here we end up calling down to the front desk and adding at least a couple nights to the stay. The three reasons are, DFW area is awesome and has great food and things to do, The hotel is fun for the kids to hang around if we feel like taking it easy, and we just don't feel like returning home yet. Give it a try. If you think I'm wrong, checkout and go somewhere else, but I doubt it. The ONLY person I could see being unhappy with this place is the snooty person that acts like a mint should be on their pillow every time they enter the room or imported caviar should be stocked in their fridge. If you can live with those exceptions, you'll be pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>My wife  and I have had the pleasure of staying here at least once a year for the last 5 years. Unless somebody else was picking up the tab, I wouldn't stay anywhere else. I'd encourage them to let us stay here. We found the place by accident back in '09 and have had nothing but comfortable experience each time. The staff is so genuinely friendly that we have become personal friends with some of the ones that have been there a while. Oscar, that works the front desk is a personal friend of ours now and we always enjoy going down town with the kiddos and watching his band(The Freeloaders) play at some hot spots. If you enjoy live music such as jazz and some cover songs, treat yourself to an awesome experience. If music is not your thing, just ask for suggestions. He has recommended tons of things for us to do, see, and eat and all of them have been spot on. 
+Back to the hotel. I have stayed at Motel 6's that have cost as much as this place and stayed in high rise hotels downtown in major cities that haven't taken as good care of us. This place is as good as it gets bang for buck. If this place isn't good enough for you, you're too needy. When we travel, everything is easy going and there is certainly not an itinerary. We are about...My wife  and I have had the pleasure of staying here at least once a year for the last 5 years. Unless somebody else was picking up the tab, I wouldn't stay anywhere else. I'd encourage them to let us stay here. We found the place by accident back in '09 and have had nothing but comfortable experience each time. The staff is so genuinely friendly that we have become personal friends with some of the ones that have been there a while. Oscar, that works the front desk is a personal friend of ours now and we always enjoy going down town with the kiddos and watching his band(The Freeloaders) play at some hot spots. If you enjoy live music such as jazz and some cover songs, treat yourself to an awesome experience. If music is not your thing, just ask for suggestions. He has recommended tons of things for us to do, see, and eat and all of them have been spot on. Back to the hotel. I have stayed at Motel 6's that have cost as much as this place and stayed in high rise hotels downtown in major cities that haven't taken as good care of us. This place is as good as it gets bang for buck. If this place isn't good enough for you, you're too needy. When we travel, everything is easy going and there is certainly not an itinerary. We are about as relaxed and easy going as I imagine it gets and this place is perfect. It's a short drive to everything, easy to get in and out of, easy to find, and close to any store you might need to make a quick run to. Can't elaborate enough about how friendly the staff is. They always treat us as if they haven't had a customer walk in the door in years. Sometimes we get a wild hair to go on random vacations and one of our destinations is Dallas just because of this hotel. It's a six hour drive from Corpus Christi but it's worth it to us if we plan to hang around for 4-5 days. Every time we've stayed here we end up calling down to the front desk and adding at least a couple nights to the stay. The three reasons are, DFW area is awesome and has great food and things to do, The hotel is fun for the kids to hang around if we feel like taking it easy, and we just don't feel like returning home yet. Give it a try. If you think I'm wrong, checkout and go somewhere else, but I doubt it. The ONLY person I could see being unhappy with this place is the snooty person that acts like a mint should be on their pillow every time they enter the room or imported caviar should be stocked in their fridge. If you can live with those exceptions, you'll be pleased.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r233831499-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -794,9 +1159,6 @@
     <t>Was in town for the NHRA Race in Ennis, Texas. Hotel was a little far from was race but I am glad I chose this paticular location. Rooms were clean and staff was great. Free breakfast was a real hot breakfast with eggs cooked to order. The hotel was located on I35 with easy on and easy off, great location.More</t>
   </si>
   <si>
-    <t>Stephen E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r233488682-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -818,9 +1180,6 @@
     <t>Had a preset contract for tax exempt stay and they refuse to honor it. Pool was dirtyHot tub was COLDSome rooms has moldHad to daily recard my room keyHotel broke federal law and had elevator broken down for over 10 hours. One individual from my group broke his knee caring luggage down stairs because elevator broken. Hotel needs new management, new rooms, new renovation or permanent closure.More</t>
   </si>
   <si>
-    <t>Nanique22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r225934462-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -839,7 +1198,52 @@
     <t>Hotel was alright, nothing wrong. Service was excellent they were very nice and helpful to my family and I. Location was good right off the interstate easy to find so very convient. We enjoyed our stay for our family reunion.More</t>
   </si>
   <si>
-    <t>paps65</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r225318332-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>225318332</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Our truck went into the shop.. Check in was fast and courteous.. Room was clean and no smells.. Bed was fluffy and comfortable.. Would definitely return.. Had a room by the interstate and heard no noise.. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Our truck went into the shop.. Check in was fast and courteous.. Room was clean and no smells.. Bed was fluffy and comfortable.. Would definitely return.. Had a room by the interstate and heard no noise.. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r225315986-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>225315986</t>
+  </si>
+  <si>
+    <t>3 night stay...</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights while our vehicle was in repair shop after break down near Dallas.  
+The staff was efficient and courteous. The lobby was beautiful, however the rest of the public areas were a bit run down and showed excessive wear (tiles missing from floor by elevator &amp; holes in carpet). The area was kept clean with the exception of the pool and hot tub.  The pool had visible dirt and rust on the bottom and the hot tub had a less than desirable smell. 
+The room was comfortable.  The bed slept very well.  There was plenty of VERY HOT water in the shower. (It was the hottest water ever.). The bathroom was clean but could use some updating withe tile and pipes showing.  The carpet was well worn but clean. 
+The breakfast was fairly typical free hotel breakfast. They did have cook to order omelette station and the chef filled your plate withe the "hot" items.  It was nothing special - just average. 
+The hotel is listed as pet friendly, but has very few rooms that pets are allowed. There is also a $25 per pet fee. 
+Just a note - the hotel caters to the many trucking companies that were in the area.  Most of the guests are truck drivers.  All were very polite and courteous and I experienced no problems. 
+The hotel is listed as 2.5 stars but I would rate it...We stayed at this hotel for 3 nights while our vehicle was in repair shop after break down near Dallas.  The staff was efficient and courteous. The lobby was beautiful, however the rest of the public areas were a bit run down and showed excessive wear (tiles missing from floor by elevator &amp; holes in carpet). The area was kept clean with the exception of the pool and hot tub.  The pool had visible dirt and rust on the bottom and the hot tub had a less than desirable smell. The room was comfortable.  The bed slept very well.  There was plenty of VERY HOT water in the shower. (It was the hottest water ever.). The bathroom was clean but could use some updating withe tile and pipes showing.  The carpet was well worn but clean. The breakfast was fairly typical free hotel breakfast. They did have cook to order omelette station and the chef filled your plate withe the "hot" items.  It was nothing special - just average. The hotel is listed as pet friendly, but has very few rooms that pets are allowed. There is also a $25 per pet fee. Just a note - the hotel caters to the many trucking companies that were in the area.  Most of the guests are truck drivers.  All were very polite and courteous and I experienced no problems. The hotel is listed as 2.5 stars but I would rate it more at a 2 star.  I would stay there again if I was in the same situation, but not if I were to take a pleasure trip to the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights while our vehicle was in repair shop after break down near Dallas.  
+The staff was efficient and courteous. The lobby was beautiful, however the rest of the public areas were a bit run down and showed excessive wear (tiles missing from floor by elevator &amp; holes in carpet). The area was kept clean with the exception of the pool and hot tub.  The pool had visible dirt and rust on the bottom and the hot tub had a less than desirable smell. 
+The room was comfortable.  The bed slept very well.  There was plenty of VERY HOT water in the shower. (It was the hottest water ever.). The bathroom was clean but could use some updating withe tile and pipes showing.  The carpet was well worn but clean. 
+The breakfast was fairly typical free hotel breakfast. They did have cook to order omelette station and the chef filled your plate withe the "hot" items.  It was nothing special - just average. 
+The hotel is listed as pet friendly, but has very few rooms that pets are allowed. There is also a $25 per pet fee. 
+Just a note - the hotel caters to the many trucking companies that were in the area.  Most of the guests are truck drivers.  All were very polite and courteous and I experienced no problems. 
+The hotel is listed as 2.5 stars but I would rate it...We stayed at this hotel for 3 nights while our vehicle was in repair shop after break down near Dallas.  The staff was efficient and courteous. The lobby was beautiful, however the rest of the public areas were a bit run down and showed excessive wear (tiles missing from floor by elevator &amp; holes in carpet). The area was kept clean with the exception of the pool and hot tub.  The pool had visible dirt and rust on the bottom and the hot tub had a less than desirable smell. The room was comfortable.  The bed slept very well.  There was plenty of VERY HOT water in the shower. (It was the hottest water ever.). The bathroom was clean but could use some updating withe tile and pipes showing.  The carpet was well worn but clean. The breakfast was fairly typical free hotel breakfast. They did have cook to order omelette station and the chef filled your plate withe the "hot" items.  It was nothing special - just average. The hotel is listed as pet friendly, but has very few rooms that pets are allowed. There is also a $25 per pet fee. Just a note - the hotel caters to the many trucking companies that were in the area.  Most of the guests are truck drivers.  All were very polite and courteous and I experienced no problems. The hotel is listed as 2.5 stars but I would rate it more at a 2 star.  I would stay there again if I was in the same situation, but not if I were to take a pleasure trip to the Dallas area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r217477810-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -866,9 +1270,6 @@
     <t>We checked in on Monday and was treated so nice . I've stayed at higher priced motels that was not so polite.Room was very clean, a/c was cooling the room icy. Which Texas is very hot in July. Mr. Oscar, Andrea, and Ernest made our stay great.More</t>
   </si>
   <si>
-    <t>rushber</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r216105320-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -896,9 +1297,6 @@
     <t>An older hotel with a nice breakfast.  Nice pool area with lots of comfortable seating.  The room was ok and the AC was abnormally loud but that helped cover up the highway noise.   The price for the area was very competitive but unless you are a family or someone with pets, I think I might look elsewhere.   If I stay again, I will ask for a room away from the highway.   The hotel staff was very personable.More</t>
   </si>
   <si>
-    <t>Grammabigtruck</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r215936748-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -917,7 +1315,55 @@
     <t>This hotel has it all, when you first walk in you are greeted not only by the friendly staff and management but you are greeted with a fresh and clean smelling place, in my book smell tells it all. Rooms are great, family and pet friendly. The overall look on the inside as you walk around is calming with plenty of sitting areas. And the breakfast they offer free is really good. I will be back next time with the whole family .More</t>
   </si>
   <si>
-    <t>Rosalba D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r205147040-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>205147040</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>I booked online using hotwire as a 3 star hotel.  First room was not clean and looked like someone had just been hanging out in the room.  Second room had what appeared to be fecal matter on the bed spread and the room was not clean.  The front desk lady was very nice.  I knew I could no get a refund.  There is a club down stairs. I have nothing against a party but the action might be a little heavy for most.  Not a 3 star hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jeremiah S, Manager at Magnuson Grand DeSoto, responded to this reviewResponded May 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2014</t>
+  </si>
+  <si>
+    <t>I booked online using hotwire as a 3 star hotel.  First room was not clean and looked like someone had just been hanging out in the room.  Second room had what appeared to be fecal matter on the bed spread and the room was not clean.  The front desk lady was very nice.  I knew I could no get a refund.  There is a club down stairs. I have nothing against a party but the action might be a little heavy for most.  Not a 3 star hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r204386551-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>204386551</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Great Experience!!! 😃</t>
+  </si>
+  <si>
+    <t>Everybody was so nice and helpful, we will be staying here next time! We went to visit a good friend and stayed there for 4 days, we loved it, they were a little busy when we checked in but the gentleman apologized for the wait and the bellman Ed carried my bags up for me while we ate at the bistro. I definitely recommend the buffalo chicken sandwich. So good. Everything was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeremiah S, Director of Sales at Magnuson Grand DeSoto, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Everybody was so nice and helpful, we will be staying here next time! We went to visit a good friend and stayed there for 4 days, we loved it, they were a little busy when we checked in but the gentleman apologized for the wait and the bellman Ed carried my bags up for me while we ate at the bistro. I definitely recommend the buffalo chicken sandwich. So good. Everything was perfect.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r204386151-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -926,9 +1372,6 @@
     <t>204386151</t>
   </si>
   <si>
-    <t>05/06/2014</t>
-  </si>
-  <si>
     <t>So DIFFERENT!</t>
   </si>
   <si>
@@ -941,9 +1384,6 @@
     <t>Okay let me start by saying I was sort of leery about visiting this hotel because of the bad reviews, but after staying here I am blown away. To start with there was an issue with the reservation, I needed a king size bed but the travel agency booked me into a room with two beds, because I booked through a travel agent and Elias, "Mr Hospitality" as he referred to himself, (I told you I would make you famous lol) was so accommodating. He went way above and beyond the call of duty to make the change, even carried my bags up to my room. I didn't think this was part of the service but he made it seem so natural. I checked out the lounge and restaurant after checking in and everyone was so nice. I am sorry I cant remember the bartenders name but she was so sweet. She was there on a Monday night. Last thing I have to mention is the amazing atrium. It was very scenic for a hotel. Thanks and I'll see you guys soon!!More</t>
   </si>
   <si>
-    <t>Jennifer H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r198056857-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -968,9 +1408,6 @@
     <t>Under construction...I guess? If so nothing is being fixed! Is very dirty and has a awful smell, even the water smell like pond water. Don't be fooled by their pictures, the pool &amp; hot tub do not work! There is nothing fun about as I feel they took my hard earned money!More</t>
   </si>
   <si>
-    <t>Kimberley S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r195954202-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
   </si>
   <si>
@@ -992,7 +1429,46 @@
     <t>Stayed here for a cheer competition at the Dallas Convention center where we had to book through the competition housing with certain hotels.....I waited way too long to reserve, this was all that was left and paid for it apparently in the form of a hotel with ZERO customer service, no hot water, dumpy rooms, closed playground and hot tub, trash everywhere, never any towels at the pool, freeway noise and running toilet nonstop. There are vending machines on each floor that are empty.....I waited at the front desk for 15 minutes to ask for towels to be delivered to the pool since the front desk clerk was MIA....it's now been another 20   minutes and still no towels. BAD experience...can't say you weren't warned. Off to wait at the front desk...AGAIN.More</t>
   </si>
   <si>
-    <t>CloseNeighbor</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r182086106-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>182086106</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Wrong Choice</t>
+  </si>
+  <si>
+    <t>Booked on line at Choice Hotels. Mistake! Place was under renovation and a mess. The so called complementary breakfast was $9.00. The room was pricey. Instead of $$ the rate should be marked as $$$$. Never stay there again. It was a waste of money.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Booked on line at Choice Hotels. Mistake! Place was under renovation and a mess. The so called complementary breakfast was $9.00. The room was pricey. Instead of $$ the rate should be marked as $$$$. Never stay there again. It was a waste of money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r178306924-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
+  </si>
+  <si>
+    <t>178306924</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>This hotel is no longer the MCM Fundome.  It is the Clarion now</t>
+  </si>
+  <si>
+    <t>I have stayed many times at this hotel while it was the MCM Fundome.  It was great at that time.  Now that it is a Clarion, the hotel has went to the dogs.  The Customer service was horrible.  The Miss American wanna be at the front desk needs a lesson in manners.  The breakfast was horrible.  The cook does not speak english.  The waitress seemed to be on drugs or she needs a mental evaluation, one of the two.  My agony from the death of my grandfather was multiplied by these terrible service that I received.  I wil not be coming back.  EVER!!!  You guys are a disgrace to the hotel industry.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I have stayed many times at this hotel while it was the MCM Fundome.  It was great at that time.  Now that it is a Clarion, the hotel has went to the dogs.  The Customer service was horrible.  The Miss American wanna be at the front desk needs a lesson in manners.  The breakfast was horrible.  The cook does not speak english.  The waitress seemed to be on drugs or she needs a mental evaluation, one of the two.  My agony from the death of my grandfather was multiplied by these terrible service that I received.  I wil not be coming back.  EVER!!!  You guys are a disgrace to the hotel industry.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55736-d107164-r175320682-Magnuson_Grand_DeSoto-DeSoto_Texas.html</t>
@@ -1518,47 +1994,43 @@
       <c r="A2" t="n">
         <v>24574</v>
       </c>
-      <c r="B2" t="n">
-        <v>167811</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1572,54 +2044,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24574</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1633,64 +2101,60 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24574</v>
       </c>
-      <c r="B4" t="n">
-        <v>167812</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1705,47 +2169,43 @@
       <c r="A5" t="n">
         <v>24574</v>
       </c>
-      <c r="B5" t="n">
-        <v>167813</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1759,243 +2219,233 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24574</v>
       </c>
-      <c r="B6" t="n">
-        <v>167814</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24574</v>
       </c>
-      <c r="B7" t="n">
-        <v>167815</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24574</v>
       </c>
-      <c r="B8" t="n">
-        <v>167816</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>96</v>
-      </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24574</v>
       </c>
-      <c r="B9" t="n">
-        <v>167817</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2009,121 +2459,123 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24574</v>
       </c>
-      <c r="B10" t="n">
-        <v>167818</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24574</v>
       </c>
-      <c r="B11" t="n">
-        <v>167819</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
         <v>2</v>
       </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2131,119 +2583,107 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24574</v>
       </c>
-      <c r="B12" t="n">
-        <v>167820</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24574</v>
       </c>
-      <c r="B13" t="n">
-        <v>14527</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2257,119 +2697,103 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24574</v>
       </c>
-      <c r="B14" t="n">
-        <v>167821</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24574</v>
       </c>
-      <c r="B15" t="n">
-        <v>167822</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2383,64 +2807,62 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24574</v>
       </c>
-      <c r="B16" t="n">
-        <v>167823</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="n">
         <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2448,245 +2870,235 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24574</v>
       </c>
-      <c r="B17" t="n">
-        <v>167824</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24574</v>
       </c>
-      <c r="B18" t="n">
-        <v>49867</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>147</v>
+      </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24574</v>
       </c>
-      <c r="B19" t="n">
-        <v>167825</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24574</v>
       </c>
-      <c r="B20" t="n">
-        <v>17204</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2702,115 +3114,117 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24574</v>
       </c>
-      <c r="B21" t="n">
-        <v>17843</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X21" t="s">
+        <v>147</v>
+      </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24574</v>
       </c>
-      <c r="B22" t="n">
-        <v>167826</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2821,130 +3235,124 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>202</v>
-      </c>
-      <c r="X22" t="s">
-        <v>203</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24574</v>
       </c>
-      <c r="B23" t="n">
-        <v>167827</v>
-      </c>
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24574</v>
       </c>
-      <c r="B24" t="n">
-        <v>3451</v>
-      </c>
-      <c r="C24" t="s">
-        <v>212</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2952,250 +3360,236 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24574</v>
       </c>
-      <c r="B25" t="n">
-        <v>167828</v>
-      </c>
-      <c r="C25" t="s">
-        <v>220</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24574</v>
       </c>
-      <c r="B26" t="n">
-        <v>167829</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24574</v>
       </c>
-      <c r="B27" t="n">
-        <v>167830</v>
-      </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24574</v>
       </c>
-      <c r="B28" t="n">
-        <v>167831</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="N28" t="s">
-        <v>232</v>
-      </c>
-      <c r="O28" t="s">
-        <v>89</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>2</v>
@@ -3206,490 +3600,422 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24574</v>
       </c>
-      <c r="B29" t="n">
-        <v>167832</v>
-      </c>
-      <c r="C29" t="s">
-        <v>246</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>127</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>253</v>
-      </c>
-      <c r="X29" t="s">
-        <v>254</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24574</v>
       </c>
-      <c r="B30" t="n">
-        <v>14765</v>
-      </c>
-      <c r="C30" t="s">
-        <v>256</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>253</v>
-      </c>
-      <c r="X30" t="s">
-        <v>254</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24574</v>
       </c>
-      <c r="B31" t="n">
-        <v>167833</v>
-      </c>
-      <c r="C31" t="s">
-        <v>264</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>253</v>
-      </c>
-      <c r="X31" t="s">
-        <v>254</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24574</v>
       </c>
-      <c r="B32" t="n">
-        <v>167834</v>
-      </c>
-      <c r="C32" t="s">
-        <v>271</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>277</v>
-      </c>
-      <c r="X32" t="s">
-        <v>278</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24574</v>
       </c>
-      <c r="B33" t="n">
-        <v>44746</v>
-      </c>
-      <c r="C33" t="s">
-        <v>280</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>287</v>
-      </c>
-      <c r="X33" t="s">
-        <v>288</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24574</v>
       </c>
-      <c r="B34" t="n">
-        <v>167835</v>
-      </c>
-      <c r="C34" t="s">
-        <v>290</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>287</v>
-      </c>
-      <c r="X34" t="s">
-        <v>288</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24574</v>
       </c>
-      <c r="B35" t="n">
-        <v>167836</v>
-      </c>
-      <c r="C35" t="s">
-        <v>297</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3697,51 +4023,51 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24574</v>
       </c>
-      <c r="B36" t="n">
-        <v>7874</v>
-      </c>
-      <c r="C36" t="s">
-        <v>305</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="N36" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" t="s">
+        <v>200</v>
+      </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -3751,150 +4077,2014 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>311</v>
-      </c>
-      <c r="X36" t="s">
-        <v>312</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24574</v>
       </c>
-      <c r="B37" t="n">
-        <v>40563</v>
-      </c>
-      <c r="C37" t="s">
-        <v>314</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>311</v>
-      </c>
-      <c r="X37" t="s">
-        <v>312</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>24574</v>
       </c>
-      <c r="B38" t="n">
-        <v>167837</v>
-      </c>
-      <c r="C38" t="s">
-        <v>322</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
-      <c r="N38" t="s">
-        <v>328</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>292</v>
+      </c>
+      <c r="X40" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>292</v>
+      </c>
+      <c r="X41" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>132</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>318</v>
+      </c>
+      <c r="O44" t="s">
+        <v>200</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>318</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
         <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>318</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>200</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>342</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>342</v>
+      </c>
+      <c r="O49" t="s">
+        <v>192</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>342</v>
+      </c>
+      <c r="O50" t="s">
+        <v>132</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52" t="s">
+        <v>363</v>
+      </c>
+      <c r="K52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>365</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>366</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>372</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>373</v>
+      </c>
+      <c r="O53" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>374</v>
+      </c>
+      <c r="X53" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s">
+        <v>379</v>
+      </c>
+      <c r="K54" t="s">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s">
+        <v>381</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>382</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>374</v>
+      </c>
+      <c r="X54" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s">
+        <v>388</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>374</v>
+      </c>
+      <c r="X55" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" t="s">
+        <v>392</v>
+      </c>
+      <c r="K56" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s">
+        <v>394</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>395</v>
+      </c>
+      <c r="O56" t="s">
+        <v>200</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>374</v>
+      </c>
+      <c r="X56" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>399</v>
+      </c>
+      <c r="L57" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>395</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s">
+        <v>406</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>407</v>
+      </c>
+      <c r="X58" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>410</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>411</v>
+      </c>
+      <c r="J59" t="s">
+        <v>412</v>
+      </c>
+      <c r="K59" t="s">
+        <v>413</v>
+      </c>
+      <c r="L59" t="s">
+        <v>414</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>415</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>416</v>
+      </c>
+      <c r="X59" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>420</v>
+      </c>
+      <c r="J60" t="s">
+        <v>421</v>
+      </c>
+      <c r="K60" t="s">
+        <v>422</v>
+      </c>
+      <c r="L60" t="s">
+        <v>423</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>416</v>
+      </c>
+      <c r="X60" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>425</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>426</v>
+      </c>
+      <c r="J61" t="s">
+        <v>427</v>
+      </c>
+      <c r="K61" t="s">
+        <v>428</v>
+      </c>
+      <c r="L61" t="s">
+        <v>429</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>430</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>431</v>
+      </c>
+      <c r="X61" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>434</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>435</v>
+      </c>
+      <c r="J62" t="s">
+        <v>436</v>
+      </c>
+      <c r="K62" t="s">
+        <v>437</v>
+      </c>
+      <c r="L62" t="s">
+        <v>438</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>439</v>
+      </c>
+      <c r="X62" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>442</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>443</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>444</v>
+      </c>
+      <c r="L63" t="s">
+        <v>445</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>446</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>448</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>449</v>
+      </c>
+      <c r="J64" t="s">
+        <v>450</v>
+      </c>
+      <c r="K64" t="s">
+        <v>451</v>
+      </c>
+      <c r="L64" t="s">
+        <v>452</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>453</v>
+      </c>
+      <c r="X64" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>456</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>457</v>
+      </c>
+      <c r="J65" t="s">
+        <v>458</v>
+      </c>
+      <c r="K65" t="s">
+        <v>459</v>
+      </c>
+      <c r="L65" t="s">
+        <v>460</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>461</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>453</v>
+      </c>
+      <c r="X65" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>463</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>464</v>
+      </c>
+      <c r="J66" t="s">
+        <v>465</v>
+      </c>
+      <c r="K66" t="s">
+        <v>466</v>
+      </c>
+      <c r="L66" t="s">
+        <v>467</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>468</v>
+      </c>
+      <c r="O66" t="s">
+        <v>200</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>453</v>
+      </c>
+      <c r="X66" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>470</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>471</v>
+      </c>
+      <c r="J67" t="s">
+        <v>472</v>
+      </c>
+      <c r="K67" t="s">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s">
+        <v>474</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>475</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>24574</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>477</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>478</v>
+      </c>
+      <c r="J68" t="s">
+        <v>479</v>
+      </c>
+      <c r="K68" t="s">
+        <v>480</v>
+      </c>
+      <c r="L68" t="s">
+        <v>481</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
